--- a/Project_06_Pivot_Table_&_Pivot_Chart/Pivot_Table_&_Pivot_Chart.xlsx
+++ b/Project_06_Pivot_Table_&_Pivot_Chart/Pivot_Table_&_Pivot_Chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Data_Science\Projects\Excel_Projects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\GitHub_Projects\MS_Excel\Project_06_Pivot_Table_&amp;_Pivot_Chart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{731500E7-A50C-489D-A2F6-0AA67BCC9E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15CD58F6-69FD-474B-AE94-45C7CA0BCAB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -471,7 +471,7 @@
     <numFmt numFmtId="166" formatCode="000000"/>
     <numFmt numFmtId="167" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -502,8 +502,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -512,18 +527,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC00"/>
+        <fgColor rgb="FFC0C0C0"/>
+        <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor rgb="FFFFCC00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC0C0C0"/>
-        <bgColor rgb="FFC0C0C0"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -541,6 +568,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF000000"/>
       </left>
@@ -548,9 +590,7 @@
         <color rgb="FF000000"/>
       </right>
       <top/>
-      <bottom style="double">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -559,53 +599,93 @@
         <color rgb="FF000000"/>
       </right>
       <top/>
-      <bottom style="double">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -632,14 +712,48 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Assignment-6.xlsx]Sheet2!PivotTable1</c:name>
+    <c:name>[Pivot_Table_&amp;_Pivot_Chart.xlsx]Sheet2!PivotTable1</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN">
+                <a:solidFill>
+                  <a:schemeClr val="bg2"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Date-wise order count</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -672,29 +786,59 @@
         <c:idx val="0"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="diamond"/>
-          <c:size val="6"/>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:marker>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -719,10 +863,12 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="FF0000"/>
             </a:solidFill>
             <a:ln>
-              <a:noFill/>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -871,7 +1017,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -890,20 +1035,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -926,11 +1057,10 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr sz="800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -971,37 +1101,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1049,8 +1148,6 @@
         <c14:dropZoneFilter val="1"/>
         <c14:dropZoneCategories val="1"/>
         <c14:dropZoneData val="1"/>
-        <c14:dropZoneSeries val="1"/>
-        <c14:dropZonesVisible val="1"/>
       </c14:pivotOptions>
     </c:ext>
     <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
@@ -1632,14 +1729,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>82550</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1841,7 +1938,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2570C8DA-E5AB-4876-93D5-5096EFB16B8F}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2570C8DA-E5AB-4876-93D5-5096EFB16B8F}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A1:B22" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -1984,6 +2081,57 @@
   <dataFields count="1">
     <dataField name="Sum of Order Count" fld="1" baseField="0" baseItem="0"/>
   </dataFields>
+  <formats count="5">
+    <format dxfId="4">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="19">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+            <x v="5"/>
+            <x v="6"/>
+            <x v="7"/>
+            <x v="8"/>
+            <x v="9"/>
+            <x v="10"/>
+            <x v="11"/>
+            <x v="12"/>
+            <x v="13"/>
+            <x v="14"/>
+            <x v="15"/>
+            <x v="16"/>
+            <x v="17"/>
+            <x v="18"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="3">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="19"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="2">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="0">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+  </formats>
   <chartFormats count="1">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
@@ -2208,27 +2356,41 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K218"/>
+  <dimension ref="A1:Q218"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView showGridLines="0" zoomScale="107" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="5" max="5" width="12.6328125" customWidth="1"/>
+    <col min="12" max="12" width="0.90625" customWidth="1"/>
+    <col min="13" max="17" width="12.6328125" hidden="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
+    <row r="1" spans="1:17" ht="12.5" customHeight="1">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+    </row>
+    <row r="2" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="2"/>
@@ -2238,5720 +2400,5720 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="14" thickTop="1" thickBot="1">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:17" ht="13.5" thickTop="1">
+      <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="8" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1" thickTop="1">
-      <c r="A4" s="7">
+    <row r="4" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A4" s="19">
         <v>311587</v>
       </c>
-      <c r="B4" s="8">
-        <v>0</v>
-      </c>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="20">
+        <v>0</v>
+      </c>
+      <c r="C4" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="10">
+      <c r="D4" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="22">
         <v>2</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="10">
         <v>40528</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="9">
         <v>40528</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="12">
         <f>SUMIFS($F$4:$F$216,$G$4:$G$216,J4)</f>
         <v>101.25</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="7">
+    <row r="5" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A5" s="19">
         <v>645109</v>
       </c>
-      <c r="B5" s="8">
-        <v>0</v>
-      </c>
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="20">
+        <v>0</v>
+      </c>
+      <c r="C5" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="10">
+      <c r="E5" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="22">
         <v>8</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="10">
         <v>40527</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="9">
         <v>40527</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="12">
         <f t="shared" ref="K5:K23" si="0">SUMIFS($F$4:$F$216,$G$4:$G$216,J5)</f>
         <v>81.25</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A6" s="7">
+    <row r="6" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A6" s="19">
         <v>645109</v>
       </c>
-      <c r="B6" s="8">
-        <v>0</v>
-      </c>
-      <c r="C6" s="9" t="s">
+      <c r="B6" s="20">
+        <v>0</v>
+      </c>
+      <c r="C6" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="10">
+      <c r="E6" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="22">
         <v>8</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="10">
         <v>40528</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="9">
         <v>40529</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="12">
         <f t="shared" si="0"/>
         <v>86.5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A7" s="7">
+    <row r="7" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A7" s="19">
         <v>835119</v>
       </c>
-      <c r="B7" s="8">
-        <v>0</v>
-      </c>
-      <c r="C7" s="9" t="s">
+      <c r="B7" s="20">
+        <v>0</v>
+      </c>
+      <c r="C7" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="10">
+      <c r="E7" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="22">
         <v>5</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="10">
         <v>40527</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="9">
         <v>40540</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="12">
         <f t="shared" si="0"/>
         <v>91.5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A8" s="7">
+    <row r="8" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A8" s="19">
         <v>921565</v>
       </c>
-      <c r="B8" s="8">
-        <v>0</v>
-      </c>
-      <c r="C8" s="9" t="s">
+      <c r="B8" s="20">
+        <v>0</v>
+      </c>
+      <c r="C8" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="10">
+      <c r="E8" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="22">
         <v>8</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="10">
         <v>40528</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="9">
         <v>40534</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="12">
         <f t="shared" si="0"/>
         <v>65.5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A9" s="7">
+    <row r="9" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A9" s="19">
         <v>904174</v>
       </c>
-      <c r="B9" s="8">
-        <v>0</v>
-      </c>
-      <c r="C9" s="9" t="s">
+      <c r="B9" s="20">
+        <v>0</v>
+      </c>
+      <c r="C9" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="10">
+      <c r="D9" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="22">
         <v>4</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="10">
         <v>40528</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="9">
         <v>40532</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="12">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A10" s="7">
+    <row r="10" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A10" s="19">
         <v>108501</v>
       </c>
-      <c r="B10" s="8">
-        <v>0</v>
-      </c>
-      <c r="C10" s="9" t="s">
+      <c r="B10" s="20">
+        <v>0</v>
+      </c>
+      <c r="C10" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="10">
+      <c r="E10" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="22">
         <v>3.5</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="10">
         <v>40527</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="9">
         <v>40533</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="12">
         <f t="shared" si="0"/>
         <v>88.25</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A11" s="7">
+    <row r="11" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A11" s="19">
         <v>806984</v>
       </c>
-      <c r="B11" s="8">
-        <v>0</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="20">
+        <v>0</v>
+      </c>
+      <c r="C11" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="10">
+      <c r="D11" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="22">
         <v>8</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="10">
         <v>40528</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="9">
         <v>40542</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="12">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A12" s="7">
+    <row r="12" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A12" s="19">
         <v>605544</v>
       </c>
-      <c r="B12" s="8">
-        <v>0</v>
-      </c>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="20">
+        <v>0</v>
+      </c>
+      <c r="C12" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="10">
+      <c r="E12" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="22">
         <v>8</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="10">
         <v>40527</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="9">
         <v>40541</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="12">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A13" s="7">
+    <row r="13" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A13" s="19">
         <v>261528</v>
       </c>
-      <c r="B13" s="8">
-        <v>0</v>
-      </c>
-      <c r="C13" s="9" t="s">
+      <c r="B13" s="20">
+        <v>0</v>
+      </c>
+      <c r="C13" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="10">
+      <c r="D13" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="22">
         <v>8</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="10">
         <v>40527</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J13" s="10">
         <v>40546</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="12">
         <f t="shared" si="0"/>
         <v>36.75</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A14" s="7">
+    <row r="14" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A14" s="19">
         <v>261528</v>
       </c>
-      <c r="B14" s="8">
-        <v>0</v>
-      </c>
-      <c r="C14" s="9" t="s">
+      <c r="B14" s="20">
+        <v>0</v>
+      </c>
+      <c r="C14" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="10">
+      <c r="D14" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="22">
         <v>8</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="10">
         <v>40528</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="J14" s="11">
+      <c r="J14" s="10">
         <v>40547</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="12">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A15" s="7">
+    <row r="15" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A15" s="19">
         <v>682726</v>
       </c>
-      <c r="B15" s="8">
-        <v>0</v>
-      </c>
-      <c r="C15" s="9" t="s">
+      <c r="B15" s="20">
+        <v>0</v>
+      </c>
+      <c r="C15" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="10">
+      <c r="D15" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="22">
         <v>1</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="10">
         <v>40527</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="J15" s="14">
+      <c r="J15" s="9">
         <v>40535</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="12">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A16" s="7">
+    <row r="16" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A16" s="19">
         <v>682726</v>
       </c>
-      <c r="B16" s="8">
-        <v>0</v>
-      </c>
-      <c r="C16" s="9" t="s">
+      <c r="B16" s="20">
+        <v>0</v>
+      </c>
+      <c r="C16" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="10">
+      <c r="D16" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="22">
         <v>1.5</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="10">
         <v>40528</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="H16" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="J16" s="11">
+      <c r="J16" s="10">
         <v>40548</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="12">
         <f t="shared" si="0"/>
         <v>38.5</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A17" s="7">
+      <c r="A17" s="19">
         <v>268234</v>
       </c>
-      <c r="B17" s="8">
-        <v>0</v>
-      </c>
-      <c r="C17" s="9" t="s">
+      <c r="B17" s="20">
+        <v>0</v>
+      </c>
+      <c r="C17" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="10">
+      <c r="D17" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="22">
         <v>1.5</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="10">
         <v>40527</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H17" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="J17" s="11">
+      <c r="J17" s="10">
         <v>40549</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="12">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A18" s="7">
+      <c r="A18" s="19">
         <v>537900</v>
       </c>
-      <c r="B18" s="8">
-        <v>0</v>
-      </c>
-      <c r="C18" s="9" t="s">
+      <c r="B18" s="20">
+        <v>0</v>
+      </c>
+      <c r="C18" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="10">
+      <c r="D18" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="22">
         <v>2</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="10">
         <v>40527</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="H18" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="J18" s="11">
+      <c r="J18" s="10">
         <v>40550</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="12">
         <f t="shared" si="0"/>
         <v>29.5</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A19" s="7">
+      <c r="A19" s="19">
         <v>935382</v>
       </c>
-      <c r="B19" s="8">
-        <v>0</v>
-      </c>
-      <c r="C19" s="9" t="s">
+      <c r="B19" s="20">
+        <v>0</v>
+      </c>
+      <c r="C19" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="10">
+      <c r="D19" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="22">
         <v>3.5</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="10">
         <v>40527</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H19" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="J19" s="14">
+      <c r="J19" s="9">
         <v>40555</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="12">
         <f t="shared" si="0"/>
         <v>4.75</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A20" s="7">
+      <c r="A20" s="19">
         <v>602526</v>
       </c>
-      <c r="B20" s="8">
-        <v>0</v>
-      </c>
-      <c r="C20" s="9" t="s">
+      <c r="B20" s="20">
+        <v>0</v>
+      </c>
+      <c r="C20" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="10">
+      <c r="D20" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="22">
         <v>2</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="10">
         <v>40527</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H20" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="J20" s="14">
+      <c r="J20" s="9">
         <v>40557</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A21" s="7">
+      <c r="A21" s="19">
         <v>624084</v>
       </c>
-      <c r="B21" s="8">
-        <v>0</v>
-      </c>
-      <c r="C21" s="9" t="s">
+      <c r="B21" s="20">
+        <v>0</v>
+      </c>
+      <c r="C21" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="10">
+      <c r="D21" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="22">
         <v>1.25</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G21" s="10">
         <v>40528</v>
       </c>
-      <c r="H21" s="9" t="s">
+      <c r="H21" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="J21" s="14">
+      <c r="J21" s="9">
         <v>40556</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="12">
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A22" s="7">
+      <c r="A22" s="19">
         <v>341458</v>
       </c>
-      <c r="B22" s="8">
-        <v>0</v>
-      </c>
-      <c r="C22" s="9" t="s">
+      <c r="B22" s="20">
+        <v>0</v>
+      </c>
+      <c r="C22" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="10">
+      <c r="D22" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="22">
         <v>8</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G22" s="10">
         <v>40528</v>
       </c>
-      <c r="H22" s="9" t="s">
+      <c r="H22" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="J22" s="14">
+      <c r="J22" s="9">
         <v>40553</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="12">
         <f t="shared" si="0"/>
         <v>8.75</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A23" s="7">
+      <c r="A23" s="19">
         <v>674630</v>
       </c>
-      <c r="B23" s="8">
-        <v>0</v>
-      </c>
-      <c r="C23" s="9" t="s">
+      <c r="B23" s="20">
+        <v>0</v>
+      </c>
+      <c r="C23" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="10">
+      <c r="D23" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="22">
         <v>2.75</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G23" s="10">
         <v>40528</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="H23" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="J23" s="14">
+      <c r="J23" s="9">
         <v>40554</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="12">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A24" s="7">
+      <c r="A24" s="19">
         <v>674630</v>
       </c>
-      <c r="B24" s="8">
-        <v>0</v>
-      </c>
-      <c r="C24" s="9" t="s">
+      <c r="B24" s="20">
+        <v>0</v>
+      </c>
+      <c r="C24" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="10">
+      <c r="E24" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="22">
         <v>1</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G24" s="10">
         <v>40528</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="H24" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="J24" s="19" t="s">
+      <c r="J24" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="12">
         <f>SUM(K4:K23)</f>
         <v>917.25</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A25" s="7">
+      <c r="A25" s="19">
         <v>752850</v>
       </c>
-      <c r="B25" s="8">
-        <v>0</v>
-      </c>
-      <c r="C25" s="9" t="s">
+      <c r="B25" s="20">
+        <v>0</v>
+      </c>
+      <c r="C25" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="10">
+      <c r="E25" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="22">
         <v>1.25</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G25" s="10">
         <v>40527</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="H25" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="12.5">
-      <c r="A26" s="7">
+      <c r="A26" s="19">
         <v>951321</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="20">
         <v>1</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="10">
+      <c r="D26" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="22">
         <v>8.75</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G26" s="10">
         <v>40529</v>
       </c>
-      <c r="H26" s="9" t="s">
+      <c r="H26" s="21" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="12.5">
-      <c r="A27" s="7">
+      <c r="A27" s="19">
         <v>311587</v>
       </c>
-      <c r="B27" s="8">
-        <v>0</v>
-      </c>
-      <c r="C27" s="9" t="s">
+      <c r="B27" s="20">
+        <v>0</v>
+      </c>
+      <c r="C27" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="10">
+      <c r="E27" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="22">
         <v>4</v>
       </c>
-      <c r="G27" s="11">
+      <c r="G27" s="10">
         <v>40529</v>
       </c>
-      <c r="H27" s="9" t="s">
+      <c r="H27" s="21" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="12.5">
-      <c r="A28" s="7">
+      <c r="A28" s="19">
         <v>140990</v>
       </c>
-      <c r="B28" s="8">
-        <v>0</v>
-      </c>
-      <c r="C28" s="9" t="s">
+      <c r="B28" s="20">
+        <v>0</v>
+      </c>
+      <c r="C28" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" s="10">
+      <c r="D28" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="22">
         <v>2</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G28" s="10">
         <v>40540</v>
       </c>
-      <c r="H28" s="9" t="s">
+      <c r="H28" s="21" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="12.5">
-      <c r="A29" s="7">
+      <c r="A29" s="19">
         <v>883669</v>
       </c>
-      <c r="B29" s="8">
-        <v>0</v>
-      </c>
-      <c r="C29" s="9" t="s">
+      <c r="B29" s="20">
+        <v>0</v>
+      </c>
+      <c r="C29" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" s="10">
+      <c r="D29" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="22">
         <v>4.75</v>
       </c>
-      <c r="G29" s="11">
+      <c r="G29" s="10">
         <v>40534</v>
       </c>
-      <c r="H29" s="9" t="s">
+      <c r="H29" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="12.5">
-      <c r="A30" s="7">
+      <c r="A30" s="19">
         <v>733760</v>
       </c>
-      <c r="B30" s="8">
-        <v>0</v>
-      </c>
-      <c r="C30" s="9" t="s">
+      <c r="B30" s="20">
+        <v>0</v>
+      </c>
+      <c r="C30" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="10">
+      <c r="D30" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="22">
         <v>3.5</v>
       </c>
-      <c r="G30" s="11">
+      <c r="G30" s="10">
         <v>40532</v>
       </c>
-      <c r="H30" s="9" t="s">
+      <c r="H30" s="21" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="12.5">
-      <c r="A31" s="7">
+      <c r="A31" s="19">
         <v>474941</v>
       </c>
-      <c r="B31" s="8">
-        <v>0</v>
-      </c>
-      <c r="C31" s="9" t="s">
+      <c r="B31" s="20">
+        <v>0</v>
+      </c>
+      <c r="C31" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="D31" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="10">
+      <c r="D31" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="22">
         <v>2.5</v>
       </c>
-      <c r="G31" s="11">
+      <c r="G31" s="10">
         <v>40534</v>
       </c>
-      <c r="H31" s="9" t="s">
+      <c r="H31" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="12.5">
-      <c r="A32" s="7">
+      <c r="A32" s="19">
         <v>474941</v>
       </c>
-      <c r="B32" s="8">
-        <v>0</v>
-      </c>
-      <c r="C32" s="9" t="s">
+      <c r="B32" s="20">
+        <v>0</v>
+      </c>
+      <c r="C32" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="10">
+      <c r="D32" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="22">
         <v>1.5</v>
       </c>
-      <c r="G32" s="11">
+      <c r="G32" s="10">
         <v>40540</v>
       </c>
-      <c r="H32" s="9" t="s">
+      <c r="H32" s="21" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="12.5">
-      <c r="A33" s="7">
+      <c r="A33" s="19">
         <v>615307</v>
       </c>
-      <c r="B33" s="8">
-        <v>0</v>
-      </c>
-      <c r="C33" s="9" t="s">
+      <c r="B33" s="20">
+        <v>0</v>
+      </c>
+      <c r="C33" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="D33" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" s="10">
+      <c r="D33" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="22">
         <v>4</v>
       </c>
-      <c r="G33" s="11">
+      <c r="G33" s="10">
         <v>40529</v>
       </c>
-      <c r="H33" s="9" t="s">
+      <c r="H33" s="21" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="12.5">
-      <c r="A34" s="7">
+      <c r="A34" s="19">
         <v>144775</v>
       </c>
-      <c r="B34" s="8">
-        <v>0</v>
-      </c>
-      <c r="C34" s="9" t="s">
+      <c r="B34" s="20">
+        <v>0</v>
+      </c>
+      <c r="C34" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D34" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" s="10">
+      <c r="D34" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="22">
         <v>2</v>
       </c>
-      <c r="G34" s="11">
+      <c r="G34" s="10">
         <v>40540</v>
       </c>
-      <c r="H34" s="9" t="s">
+      <c r="H34" s="21" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="12.5">
-      <c r="A35" s="7">
+      <c r="A35" s="19">
         <v>54857</v>
       </c>
-      <c r="B35" s="8">
-        <v>0</v>
-      </c>
-      <c r="C35" s="9" t="s">
+      <c r="B35" s="20">
+        <v>0</v>
+      </c>
+      <c r="C35" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D35" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" s="10">
+      <c r="D35" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="22">
         <v>1</v>
       </c>
-      <c r="G35" s="11">
+      <c r="G35" s="10">
         <v>40533</v>
       </c>
-      <c r="H35" s="9" t="s">
+      <c r="H35" s="21" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="12.5">
-      <c r="A36" s="7">
+      <c r="A36" s="19">
         <v>969490</v>
       </c>
-      <c r="B36" s="8">
-        <v>0</v>
-      </c>
-      <c r="C36" s="9" t="s">
+      <c r="B36" s="20">
+        <v>0</v>
+      </c>
+      <c r="C36" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E36" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36" s="10">
+      <c r="E36" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="22">
         <v>3</v>
       </c>
-      <c r="G36" s="11">
+      <c r="G36" s="10">
         <v>40533</v>
       </c>
-      <c r="H36" s="9" t="s">
+      <c r="H36" s="21" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="12.5">
-      <c r="A37" s="7">
+      <c r="A37" s="19">
         <v>969490</v>
       </c>
-      <c r="B37" s="8">
-        <v>0</v>
-      </c>
-      <c r="C37" s="9" t="s">
+      <c r="B37" s="20">
+        <v>0</v>
+      </c>
+      <c r="C37" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D37" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" s="10">
+      <c r="D37" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="22">
         <v>8</v>
       </c>
-      <c r="G37" s="11">
+      <c r="G37" s="10">
         <v>40534</v>
       </c>
-      <c r="H37" s="9" t="s">
+      <c r="H37" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="12.5">
-      <c r="A38" s="7">
+      <c r="A38" s="19">
         <v>579919</v>
       </c>
-      <c r="B38" s="8">
-        <v>0</v>
-      </c>
-      <c r="C38" s="9" t="s">
+      <c r="B38" s="20">
+        <v>0</v>
+      </c>
+      <c r="C38" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="D38" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38" s="10">
+      <c r="D38" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="22">
         <v>2</v>
       </c>
-      <c r="G38" s="11">
+      <c r="G38" s="10">
         <v>40534</v>
       </c>
-      <c r="H38" s="9" t="s">
+      <c r="H38" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="12.5">
-      <c r="A39" s="7">
+      <c r="A39" s="19">
         <v>599675</v>
       </c>
-      <c r="B39" s="8">
-        <v>0</v>
-      </c>
-      <c r="C39" s="9" t="s">
+      <c r="B39" s="20">
+        <v>0</v>
+      </c>
+      <c r="C39" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="D39" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F39" s="10">
+      <c r="D39" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="22">
         <v>2</v>
       </c>
-      <c r="G39" s="11">
+      <c r="G39" s="10">
         <v>40534</v>
       </c>
-      <c r="H39" s="9" t="s">
+      <c r="H39" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="12.5">
-      <c r="A40" s="7">
+      <c r="A40" s="19">
         <v>625135</v>
       </c>
-      <c r="B40" s="8">
-        <v>0</v>
-      </c>
-      <c r="C40" s="9" t="s">
+      <c r="B40" s="20">
+        <v>0</v>
+      </c>
+      <c r="C40" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="D40" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F40" s="10">
+      <c r="D40" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="22">
         <v>1</v>
       </c>
-      <c r="G40" s="11">
+      <c r="G40" s="10">
         <v>40540</v>
       </c>
-      <c r="H40" s="9" t="s">
+      <c r="H40" s="21" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="12.5">
-      <c r="A41" s="7">
+      <c r="A41" s="19">
         <v>664825</v>
       </c>
-      <c r="B41" s="8">
-        <v>0</v>
-      </c>
-      <c r="C41" s="9" t="s">
+      <c r="B41" s="20">
+        <v>0</v>
+      </c>
+      <c r="C41" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="D41" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F41" s="10">
+      <c r="D41" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="22">
         <v>8</v>
       </c>
-      <c r="G41" s="11">
+      <c r="G41" s="10">
         <v>40542</v>
       </c>
-      <c r="H41" s="9" t="s">
+      <c r="H41" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="12.5">
-      <c r="A42" s="7">
+      <c r="A42" s="19">
         <v>664825</v>
       </c>
-      <c r="B42" s="8">
-        <v>0</v>
-      </c>
-      <c r="C42" s="9" t="s">
+      <c r="B42" s="20">
+        <v>0</v>
+      </c>
+      <c r="C42" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="D42" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F42" s="10">
+      <c r="D42" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E42" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="22">
         <v>6</v>
       </c>
-      <c r="G42" s="11">
+      <c r="G42" s="10">
         <v>40541</v>
       </c>
-      <c r="H42" s="9" t="s">
+      <c r="H42" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="12.5">
-      <c r="A43" s="7">
+      <c r="A43" s="19">
         <v>459949</v>
       </c>
-      <c r="B43" s="8">
-        <v>0</v>
-      </c>
-      <c r="C43" s="9" t="s">
+      <c r="B43" s="20">
+        <v>0</v>
+      </c>
+      <c r="C43" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="D43" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" s="10">
+      <c r="D43" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="22">
         <v>2</v>
       </c>
-      <c r="G43" s="11">
+      <c r="G43" s="10">
         <v>40529</v>
       </c>
-      <c r="H43" s="9" t="s">
+      <c r="H43" s="21" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="12.5">
-      <c r="A44" s="7">
+      <c r="A44" s="19">
         <v>375792</v>
       </c>
-      <c r="B44" s="8">
-        <v>0</v>
-      </c>
-      <c r="C44" s="9" t="s">
+      <c r="B44" s="20">
+        <v>0</v>
+      </c>
+      <c r="C44" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D44" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E44" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F44" s="10">
+      <c r="E44" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="22">
         <v>4</v>
       </c>
-      <c r="G44" s="11">
+      <c r="G44" s="10">
         <v>40532</v>
       </c>
-      <c r="H44" s="9" t="s">
+      <c r="H44" s="21" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="12.5">
-      <c r="A45" s="7">
+      <c r="A45" s="19">
         <v>459949</v>
       </c>
-      <c r="B45" s="8">
-        <v>0</v>
-      </c>
-      <c r="C45" s="9" t="s">
+      <c r="B45" s="20">
+        <v>0</v>
+      </c>
+      <c r="C45" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="D45" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E45" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F45" s="10">
+      <c r="E45" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="22">
         <v>8</v>
       </c>
-      <c r="G45" s="11">
+      <c r="G45" s="10">
         <v>40546</v>
       </c>
-      <c r="H45" s="9" t="s">
+      <c r="H45" s="21" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="12.5">
-      <c r="A46" s="7">
+      <c r="A46" s="19">
         <v>459949</v>
       </c>
-      <c r="B46" s="8">
-        <v>0</v>
-      </c>
-      <c r="C46" s="9" t="s">
+      <c r="B46" s="20">
+        <v>0</v>
+      </c>
+      <c r="C46" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="D46" s="9" t="s">
+      <c r="D46" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E46" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F46" s="10">
+      <c r="E46" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="22">
         <v>4</v>
       </c>
-      <c r="G46" s="11">
+      <c r="G46" s="10">
         <v>40547</v>
       </c>
-      <c r="H46" s="9" t="s">
+      <c r="H46" s="21" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="12.5">
-      <c r="A47" s="7">
+      <c r="A47" s="19">
         <v>869277</v>
       </c>
-      <c r="B47" s="8">
-        <v>0</v>
-      </c>
-      <c r="C47" s="9" t="s">
+      <c r="B47" s="20">
+        <v>0</v>
+      </c>
+      <c r="C47" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="D47" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F47" s="10">
+      <c r="D47" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E47" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="22">
         <v>8</v>
       </c>
-      <c r="G47" s="11">
+      <c r="G47" s="10">
         <v>40541</v>
       </c>
-      <c r="H47" s="9" t="s">
+      <c r="H47" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="12.5">
-      <c r="A48" s="7">
+      <c r="A48" s="19">
         <v>389844</v>
       </c>
-      <c r="B48" s="8">
-        <v>0</v>
-      </c>
-      <c r="C48" s="9" t="s">
+      <c r="B48" s="20">
+        <v>0</v>
+      </c>
+      <c r="C48" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="D48" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F48" s="10">
+      <c r="D48" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E48" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="22">
         <v>2</v>
       </c>
-      <c r="G48" s="11">
+      <c r="G48" s="10">
         <v>40534</v>
       </c>
-      <c r="H48" s="9" t="s">
+      <c r="H48" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="12.5">
-      <c r="A49" s="7">
+      <c r="A49" s="19">
         <v>389844</v>
       </c>
-      <c r="B49" s="8">
-        <v>0</v>
-      </c>
-      <c r="C49" s="9" t="s">
+      <c r="B49" s="20">
+        <v>0</v>
+      </c>
+      <c r="C49" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="D49" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F49" s="10">
+      <c r="D49" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E49" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="22">
         <v>8</v>
       </c>
-      <c r="G49" s="11">
+      <c r="G49" s="10">
         <v>40535</v>
       </c>
-      <c r="H49" s="9" t="s">
+      <c r="H49" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="12.5">
-      <c r="A50" s="7">
+      <c r="A50" s="19">
         <v>873164</v>
       </c>
-      <c r="B50" s="8">
-        <v>0</v>
-      </c>
-      <c r="C50" s="9" t="s">
+      <c r="B50" s="20">
+        <v>0</v>
+      </c>
+      <c r="C50" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D50" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F50" s="10">
+      <c r="D50" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E50" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="22">
         <v>3</v>
       </c>
-      <c r="G50" s="11">
+      <c r="G50" s="10">
         <v>40540</v>
       </c>
-      <c r="H50" s="9" t="s">
+      <c r="H50" s="21" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="12.5">
-      <c r="A51" s="7">
+      <c r="A51" s="19">
         <v>935382</v>
       </c>
-      <c r="B51" s="8">
-        <v>0</v>
-      </c>
-      <c r="C51" s="9" t="s">
+      <c r="B51" s="20">
+        <v>0</v>
+      </c>
+      <c r="C51" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D51" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F51" s="10">
+      <c r="D51" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E51" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" s="22">
         <v>8</v>
       </c>
-      <c r="G51" s="11">
+      <c r="G51" s="10">
         <v>40542</v>
       </c>
-      <c r="H51" s="9" t="s">
+      <c r="H51" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="12.5">
-      <c r="A52" s="7">
+      <c r="A52" s="19">
         <v>935382</v>
       </c>
-      <c r="B52" s="8">
-        <v>0</v>
-      </c>
-      <c r="C52" s="9" t="s">
+      <c r="B52" s="20">
+        <v>0</v>
+      </c>
+      <c r="C52" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D52" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F52" s="10">
+      <c r="D52" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E52" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" s="22">
         <v>8</v>
       </c>
-      <c r="G52" s="11">
+      <c r="G52" s="10">
         <v>40541</v>
       </c>
-      <c r="H52" s="9" t="s">
+      <c r="H52" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="12.5">
-      <c r="A53" s="7">
+      <c r="A53" s="19">
         <v>555166</v>
       </c>
-      <c r="B53" s="8">
-        <v>0</v>
-      </c>
-      <c r="C53" s="9" t="s">
+      <c r="B53" s="20">
+        <v>0</v>
+      </c>
+      <c r="C53" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="D53" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F53" s="10">
+      <c r="D53" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E53" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" s="22">
         <v>8</v>
       </c>
-      <c r="G53" s="11">
+      <c r="G53" s="10">
         <v>40534</v>
       </c>
-      <c r="H53" s="9" t="s">
+      <c r="H53" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="12.5">
-      <c r="A54" s="7">
+      <c r="A54" s="19">
         <v>555166</v>
       </c>
-      <c r="B54" s="8">
-        <v>0</v>
-      </c>
-      <c r="C54" s="9" t="s">
+      <c r="B54" s="20">
+        <v>0</v>
+      </c>
+      <c r="C54" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="D54" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F54" s="10">
+      <c r="D54" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E54" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" s="22">
         <v>6.25</v>
       </c>
-      <c r="G54" s="11">
+      <c r="G54" s="10">
         <v>40533</v>
       </c>
-      <c r="H54" s="9" t="s">
+      <c r="H54" s="21" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="12.5">
-      <c r="A55" s="7">
+      <c r="A55" s="19">
         <v>555166</v>
       </c>
-      <c r="B55" s="8">
-        <v>0</v>
-      </c>
-      <c r="C55" s="9" t="s">
+      <c r="B55" s="20">
+        <v>0</v>
+      </c>
+      <c r="C55" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="D55" s="9" t="s">
+      <c r="D55" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E55" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F55" s="10">
+      <c r="E55" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" s="22">
         <v>4</v>
       </c>
-      <c r="G55" s="11">
+      <c r="G55" s="10">
         <v>40529</v>
       </c>
-      <c r="H55" s="9" t="s">
+      <c r="H55" s="21" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="12.5">
-      <c r="A56" s="7">
+      <c r="A56" s="19">
         <v>503495</v>
       </c>
-      <c r="B56" s="8">
-        <v>0</v>
-      </c>
-      <c r="C56" s="9" t="s">
+      <c r="B56" s="20">
+        <v>0</v>
+      </c>
+      <c r="C56" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="D56" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F56" s="10">
+      <c r="D56" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" s="22">
         <v>2</v>
       </c>
-      <c r="G56" s="11">
+      <c r="G56" s="10">
         <v>40532</v>
       </c>
-      <c r="H56" s="9" t="s">
+      <c r="H56" s="21" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="12.5">
-      <c r="A57" s="7">
+      <c r="A57" s="19">
         <v>503495</v>
       </c>
-      <c r="B57" s="8">
-        <v>0</v>
-      </c>
-      <c r="C57" s="9" t="s">
+      <c r="B57" s="20">
+        <v>0</v>
+      </c>
+      <c r="C57" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="D57" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E57" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F57" s="10">
+      <c r="D57" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="22">
         <v>8</v>
       </c>
-      <c r="G57" s="11">
+      <c r="G57" s="10">
         <v>40534</v>
       </c>
-      <c r="H57" s="9" t="s">
+      <c r="H57" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="12.5">
-      <c r="A58" s="7">
+      <c r="A58" s="19">
         <v>935382</v>
       </c>
-      <c r="B58" s="8">
-        <v>0</v>
-      </c>
-      <c r="C58" s="9" t="s">
+      <c r="B58" s="20">
+        <v>0</v>
+      </c>
+      <c r="C58" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D58" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F58" s="10">
+      <c r="D58" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E58" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" s="22">
         <v>8</v>
       </c>
-      <c r="G58" s="11">
+      <c r="G58" s="10">
         <v>40540</v>
       </c>
-      <c r="H58" s="9" t="s">
+      <c r="H58" s="21" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="12.5">
-      <c r="A59" s="7">
+      <c r="A59" s="19">
         <v>35938</v>
       </c>
-      <c r="B59" s="8">
-        <v>0</v>
-      </c>
-      <c r="C59" s="9" t="s">
+      <c r="B59" s="20">
+        <v>0</v>
+      </c>
+      <c r="C59" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D59" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E59" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F59" s="10">
+      <c r="D59" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" s="22">
         <v>2</v>
       </c>
-      <c r="G59" s="11">
+      <c r="G59" s="10">
         <v>40529</v>
       </c>
-      <c r="H59" s="9" t="s">
+      <c r="H59" s="21" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="12.5">
-      <c r="A60" s="7">
+      <c r="A60" s="19">
         <v>162126</v>
       </c>
-      <c r="B60" s="8">
-        <v>0</v>
-      </c>
-      <c r="C60" s="9" t="s">
+      <c r="B60" s="20">
+        <v>0</v>
+      </c>
+      <c r="C60" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="D60" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E60" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F60" s="10">
+      <c r="D60" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60" s="22">
         <v>3</v>
       </c>
-      <c r="G60" s="11">
+      <c r="G60" s="10">
         <v>40532</v>
       </c>
-      <c r="H60" s="9" t="s">
+      <c r="H60" s="21" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="12.5">
-      <c r="A61" s="7">
+      <c r="A61" s="19">
         <v>453743</v>
       </c>
-      <c r="B61" s="8">
-        <v>0</v>
-      </c>
-      <c r="C61" s="9" t="s">
+      <c r="B61" s="20">
+        <v>0</v>
+      </c>
+      <c r="C61" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="D61" s="9" t="s">
+      <c r="D61" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E61" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F61" s="10">
+      <c r="E61" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" s="22">
         <v>3.25</v>
       </c>
-      <c r="G61" s="11">
+      <c r="G61" s="10">
         <v>40532</v>
       </c>
-      <c r="H61" s="9" t="s">
+      <c r="H61" s="21" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="12.5">
-      <c r="A62" s="7">
+      <c r="A62" s="19">
         <v>674630</v>
       </c>
-      <c r="B62" s="8">
-        <v>0</v>
-      </c>
-      <c r="C62" s="9" t="s">
+      <c r="B62" s="20">
+        <v>0</v>
+      </c>
+      <c r="C62" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D62" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F62" s="10">
+      <c r="D62" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E62" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F62" s="22">
         <v>8</v>
       </c>
-      <c r="G62" s="11">
+      <c r="G62" s="10">
         <v>40532</v>
       </c>
-      <c r="H62" s="9" t="s">
+      <c r="H62" s="21" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="12.5">
-      <c r="A63" s="7">
+      <c r="A63" s="19">
         <v>422727</v>
       </c>
-      <c r="B63" s="8">
-        <v>0</v>
-      </c>
-      <c r="C63" s="9" t="s">
+      <c r="B63" s="20">
+        <v>0</v>
+      </c>
+      <c r="C63" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="D63" s="9" t="s">
+      <c r="D63" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E63" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F63" s="10">
+      <c r="E63" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F63" s="22">
         <v>8</v>
       </c>
-      <c r="G63" s="11">
+      <c r="G63" s="10">
         <v>40533</v>
       </c>
-      <c r="H63" s="9" t="s">
+      <c r="H63" s="21" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="12.5">
-      <c r="A64" s="7">
+      <c r="A64" s="19">
         <v>820836</v>
       </c>
-      <c r="B64" s="8">
-        <v>0</v>
-      </c>
-      <c r="C64" s="9" t="s">
+      <c r="B64" s="20">
+        <v>0</v>
+      </c>
+      <c r="C64" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="D64" s="9" t="s">
+      <c r="D64" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E64" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F64" s="10">
+      <c r="E64" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" s="22">
         <v>4</v>
       </c>
-      <c r="G64" s="11">
+      <c r="G64" s="10">
         <v>40529</v>
       </c>
-      <c r="H64" s="9" t="s">
+      <c r="H64" s="21" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="12.5">
-      <c r="A65" s="7">
+      <c r="A65" s="19">
         <v>647912</v>
       </c>
-      <c r="B65" s="8">
-        <v>0</v>
-      </c>
-      <c r="C65" s="9" t="s">
+      <c r="B65" s="20">
+        <v>0</v>
+      </c>
+      <c r="C65" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="D65" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E65" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F65" s="10">
+      <c r="D65" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" s="22">
         <v>2.5</v>
       </c>
-      <c r="G65" s="11">
+      <c r="G65" s="10">
         <v>40529</v>
       </c>
-      <c r="H65" s="9" t="s">
+      <c r="H65" s="21" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="12.5">
-      <c r="A66" s="7">
+      <c r="A66" s="19">
         <v>363618</v>
       </c>
-      <c r="B66" s="8">
-        <v>0</v>
-      </c>
-      <c r="C66" s="9" t="s">
+      <c r="B66" s="20">
+        <v>0</v>
+      </c>
+      <c r="C66" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="D66" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F66" s="10">
+      <c r="D66" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F66" s="22">
         <v>1</v>
       </c>
-      <c r="G66" s="11">
+      <c r="G66" s="10">
         <v>40533</v>
       </c>
-      <c r="H66" s="9" t="s">
+      <c r="H66" s="21" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="12.5">
-      <c r="A67" s="7">
+      <c r="A67" s="19">
         <v>309284</v>
       </c>
-      <c r="B67" s="8">
-        <v>0</v>
-      </c>
-      <c r="C67" s="9" t="s">
+      <c r="B67" s="20">
+        <v>0</v>
+      </c>
+      <c r="C67" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="D67" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E67" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F67" s="10">
+      <c r="D67" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67" s="22">
         <v>8</v>
       </c>
-      <c r="G67" s="11">
+      <c r="G67" s="10">
         <v>40532</v>
       </c>
-      <c r="H67" s="9" t="s">
+      <c r="H67" s="21" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="12.5">
-      <c r="A68" s="7">
+      <c r="A68" s="19">
         <v>694606</v>
       </c>
-      <c r="B68" s="8">
-        <v>0</v>
-      </c>
-      <c r="C68" s="9" t="s">
+      <c r="B68" s="20">
+        <v>0</v>
+      </c>
+      <c r="C68" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="D68" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E68" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F68" s="10">
+      <c r="D68" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68" s="22">
         <v>0.75</v>
       </c>
-      <c r="G68" s="11">
+      <c r="G68" s="10">
         <v>40532</v>
       </c>
-      <c r="H68" s="9" t="s">
+      <c r="H68" s="21" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="12.5">
-      <c r="A69" s="7">
+      <c r="A69" s="19">
         <v>694606</v>
       </c>
-      <c r="B69" s="8">
-        <v>0</v>
-      </c>
-      <c r="C69" s="9" t="s">
+      <c r="B69" s="20">
+        <v>0</v>
+      </c>
+      <c r="C69" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="D69" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E69" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F69" s="10">
+      <c r="D69" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69" s="22">
         <v>0.5</v>
       </c>
-      <c r="G69" s="11">
+      <c r="G69" s="10">
         <v>40541</v>
       </c>
-      <c r="H69" s="9" t="s">
+      <c r="H69" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="12.5">
-      <c r="A70" s="7">
+      <c r="A70" s="19">
         <v>942722</v>
       </c>
-      <c r="B70" s="8">
-        <v>0</v>
-      </c>
-      <c r="C70" s="9" t="s">
+      <c r="B70" s="20">
+        <v>0</v>
+      </c>
+      <c r="C70" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="D70" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E70" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F70" s="10">
+      <c r="D70" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F70" s="22">
         <v>1</v>
       </c>
-      <c r="G70" s="11">
+      <c r="G70" s="10">
         <v>40533</v>
       </c>
-      <c r="H70" s="9" t="s">
+      <c r="H70" s="21" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="12.5">
-      <c r="A71" s="7">
+      <c r="A71" s="19">
         <v>689783</v>
       </c>
-      <c r="B71" s="8">
-        <v>0</v>
-      </c>
-      <c r="C71" s="9" t="s">
+      <c r="B71" s="20">
+        <v>0</v>
+      </c>
+      <c r="C71" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="D71" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E71" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F71" s="10">
+      <c r="D71" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71" s="22">
         <v>3</v>
       </c>
-      <c r="G71" s="11">
+      <c r="G71" s="10">
         <v>40541</v>
       </c>
-      <c r="H71" s="9" t="s">
+      <c r="H71" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="12.5">
-      <c r="A72" s="7">
+      <c r="A72" s="19">
         <v>572634</v>
       </c>
-      <c r="B72" s="8">
-        <v>0</v>
-      </c>
-      <c r="C72" s="9" t="s">
+      <c r="B72" s="20">
+        <v>0</v>
+      </c>
+      <c r="C72" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="D72" s="9" t="s">
+      <c r="D72" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E72" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F72" s="10">
+      <c r="E72" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F72" s="22">
         <v>8</v>
       </c>
-      <c r="G72" s="11">
+      <c r="G72" s="10">
         <v>40529</v>
       </c>
-      <c r="H72" s="9" t="s">
+      <c r="H72" s="21" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="12.5">
-      <c r="A73" s="7">
+      <c r="A73" s="19">
         <v>572634</v>
       </c>
-      <c r="B73" s="8">
-        <v>0</v>
-      </c>
-      <c r="C73" s="9" t="s">
+      <c r="B73" s="20">
+        <v>0</v>
+      </c>
+      <c r="C73" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="D73" s="9" t="s">
+      <c r="D73" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E73" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F73" s="10">
+      <c r="E73" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" s="22">
         <v>8</v>
       </c>
-      <c r="G73" s="11">
+      <c r="G73" s="10">
         <v>40532</v>
       </c>
-      <c r="H73" s="9" t="s">
+      <c r="H73" s="21" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="12.5">
-      <c r="A74" s="7">
+      <c r="A74" s="19">
         <v>572634</v>
       </c>
-      <c r="B74" s="8">
-        <v>0</v>
-      </c>
-      <c r="C74" s="9" t="s">
+      <c r="B74" s="20">
+        <v>0</v>
+      </c>
+      <c r="C74" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="D74" s="9" t="s">
+      <c r="D74" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E74" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F74" s="10">
+      <c r="E74" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F74" s="22">
         <v>8</v>
       </c>
-      <c r="G74" s="11">
+      <c r="G74" s="10">
         <v>40533</v>
       </c>
-      <c r="H74" s="9" t="s">
+      <c r="H74" s="21" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="12.5">
-      <c r="A75" s="7">
+      <c r="A75" s="19">
         <v>572634</v>
       </c>
-      <c r="B75" s="8">
-        <v>0</v>
-      </c>
-      <c r="C75" s="9" t="s">
+      <c r="B75" s="20">
+        <v>0</v>
+      </c>
+      <c r="C75" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="D75" s="9" t="s">
+      <c r="D75" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E75" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F75" s="10">
+      <c r="E75" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F75" s="22">
         <v>8</v>
       </c>
-      <c r="G75" s="11">
+      <c r="G75" s="10">
         <v>40534</v>
       </c>
-      <c r="H75" s="9" t="s">
+      <c r="H75" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="12.5">
-      <c r="A76" s="7">
+      <c r="A76" s="19">
         <v>53568</v>
       </c>
-      <c r="B76" s="8">
-        <v>0</v>
-      </c>
-      <c r="C76" s="9" t="s">
+      <c r="B76" s="20">
+        <v>0</v>
+      </c>
+      <c r="C76" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="D76" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E76" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F76" s="10">
+      <c r="D76" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E76" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F76" s="22">
         <v>8</v>
       </c>
-      <c r="G76" s="11">
+      <c r="G76" s="10">
         <v>40542</v>
       </c>
-      <c r="H76" s="9" t="s">
+      <c r="H76" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="12.5">
-      <c r="A77" s="7">
+      <c r="A77" s="19">
         <v>341458</v>
       </c>
-      <c r="B77" s="8">
-        <v>0</v>
-      </c>
-      <c r="C77" s="9" t="s">
+      <c r="B77" s="20">
+        <v>0</v>
+      </c>
+      <c r="C77" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D77" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E77" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F77" s="10">
+      <c r="D77" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E77" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" s="22">
         <v>8</v>
       </c>
-      <c r="G77" s="11">
+      <c r="G77" s="10">
         <v>40542</v>
       </c>
-      <c r="H77" s="9" t="s">
+      <c r="H77" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="12.5">
-      <c r="A78" s="7">
+      <c r="A78" s="19">
         <v>645109</v>
       </c>
-      <c r="B78" s="8">
-        <v>0</v>
-      </c>
-      <c r="C78" s="9" t="s">
+      <c r="B78" s="20">
+        <v>0</v>
+      </c>
+      <c r="C78" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D78" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E78" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F78" s="10">
+      <c r="D78" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E78" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F78" s="22">
         <v>4</v>
       </c>
-      <c r="G78" s="11">
+      <c r="G78" s="10">
         <v>40533</v>
       </c>
-      <c r="H78" s="9" t="s">
+      <c r="H78" s="21" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="12.5">
-      <c r="A79" s="7">
+      <c r="A79" s="19">
         <v>645109</v>
       </c>
-      <c r="B79" s="8">
-        <v>0</v>
-      </c>
-      <c r="C79" s="9" t="s">
+      <c r="B79" s="20">
+        <v>0</v>
+      </c>
+      <c r="C79" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D79" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E79" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F79" s="10">
+      <c r="D79" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E79" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79" s="22">
         <v>8</v>
       </c>
-      <c r="G79" s="11">
+      <c r="G79" s="10">
         <v>40534</v>
       </c>
-      <c r="H79" s="9" t="s">
+      <c r="H79" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="12.5">
-      <c r="A80" s="7">
+      <c r="A80" s="19">
         <v>645109</v>
       </c>
-      <c r="B80" s="8">
-        <v>0</v>
-      </c>
-      <c r="C80" s="9" t="s">
+      <c r="B80" s="20">
+        <v>0</v>
+      </c>
+      <c r="C80" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D80" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E80" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F80" s="10">
+      <c r="D80" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E80" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F80" s="22">
         <v>8</v>
       </c>
-      <c r="G80" s="11">
+      <c r="G80" s="10">
         <v>40535</v>
       </c>
-      <c r="H80" s="9" t="s">
+      <c r="H80" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="12.5">
-      <c r="A81" s="7">
+      <c r="A81" s="19">
         <v>309793</v>
       </c>
-      <c r="B81" s="8">
-        <v>0</v>
-      </c>
-      <c r="C81" s="9" t="s">
+      <c r="B81" s="20">
+        <v>0</v>
+      </c>
+      <c r="C81" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="D81" s="9" t="s">
+      <c r="D81" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E81" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F81" s="10">
+      <c r="E81" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81" s="22">
         <v>2</v>
       </c>
-      <c r="G81" s="11">
+      <c r="G81" s="10">
         <v>40534</v>
       </c>
-      <c r="H81" s="9" t="s">
+      <c r="H81" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="12.5">
-      <c r="A82" s="7">
+      <c r="A82" s="19">
         <v>689074</v>
       </c>
-      <c r="B82" s="8">
-        <v>0</v>
-      </c>
-      <c r="C82" s="9" t="s">
+      <c r="B82" s="20">
+        <v>0</v>
+      </c>
+      <c r="C82" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="D82" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E82" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F82" s="10">
+      <c r="D82" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E82" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F82" s="22">
         <v>8</v>
       </c>
-      <c r="G82" s="11">
+      <c r="G82" s="10">
         <v>40540</v>
       </c>
-      <c r="H82" s="9" t="s">
+      <c r="H82" s="21" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="12.5">
-      <c r="A83" s="7">
+      <c r="A83" s="19">
         <v>689074</v>
       </c>
-      <c r="B83" s="8">
-        <v>0</v>
-      </c>
-      <c r="C83" s="9" t="s">
+      <c r="B83" s="20">
+        <v>0</v>
+      </c>
+      <c r="C83" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E83" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F83" s="10">
+      <c r="D83" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E83" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F83" s="22">
         <v>8</v>
       </c>
-      <c r="G83" s="11">
+      <c r="G83" s="10">
         <v>40541</v>
       </c>
-      <c r="H83" s="9" t="s">
+      <c r="H83" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="12.5">
-      <c r="A84" s="7">
+      <c r="A84" s="19">
         <v>689074</v>
       </c>
-      <c r="B84" s="8">
-        <v>0</v>
-      </c>
-      <c r="C84" s="9" t="s">
+      <c r="B84" s="20">
+        <v>0</v>
+      </c>
+      <c r="C84" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="D84" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E84" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F84" s="10">
+      <c r="D84" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E84" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F84" s="22">
         <v>8</v>
       </c>
-      <c r="G84" s="11">
+      <c r="G84" s="10">
         <v>40542</v>
       </c>
-      <c r="H84" s="9" t="s">
+      <c r="H84" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="12.5">
-      <c r="A85" s="7">
+      <c r="A85" s="19">
         <v>609303</v>
       </c>
-      <c r="B85" s="8">
+      <c r="B85" s="20">
         <v>1</v>
       </c>
-      <c r="C85" s="9" t="s">
+      <c r="C85" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="D85" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E85" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F85" s="10">
+      <c r="D85" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E85" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F85" s="22">
         <v>8</v>
       </c>
-      <c r="G85" s="11">
+      <c r="G85" s="10">
         <v>40540</v>
       </c>
-      <c r="H85" s="9" t="s">
+      <c r="H85" s="21" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="12.5">
-      <c r="A86" s="7">
+      <c r="A86" s="19">
         <v>185450</v>
       </c>
-      <c r="B86" s="8">
-        <v>0</v>
-      </c>
-      <c r="C86" s="9" t="s">
+      <c r="B86" s="20">
+        <v>0</v>
+      </c>
+      <c r="C86" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="D86" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E86" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F86" s="10">
+      <c r="D86" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E86" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F86" s="22">
         <v>4</v>
       </c>
-      <c r="G86" s="11">
+      <c r="G86" s="10">
         <v>40533</v>
       </c>
-      <c r="H86" s="9" t="s">
+      <c r="H86" s="21" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="12.5">
-      <c r="A87" s="7">
+      <c r="A87" s="19">
         <v>525099</v>
       </c>
-      <c r="B87" s="8">
-        <v>0</v>
-      </c>
-      <c r="C87" s="9" t="s">
+      <c r="B87" s="20">
+        <v>0</v>
+      </c>
+      <c r="C87" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="D87" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E87" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F87" s="10">
+      <c r="D87" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E87" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F87" s="22">
         <v>8</v>
       </c>
-      <c r="G87" s="11">
+      <c r="G87" s="10">
         <v>40532</v>
       </c>
-      <c r="H87" s="9" t="s">
+      <c r="H87" s="21" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="12.5">
-      <c r="A88" s="7">
+      <c r="A88" s="19">
         <v>217327</v>
       </c>
-      <c r="B88" s="8">
-        <v>0</v>
-      </c>
-      <c r="C88" s="9" t="s">
+      <c r="B88" s="20">
+        <v>0</v>
+      </c>
+      <c r="C88" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="D88" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E88" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F88" s="10">
+      <c r="D88" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E88" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F88" s="22">
         <v>8</v>
       </c>
-      <c r="G88" s="11">
+      <c r="G88" s="10">
         <v>40529</v>
       </c>
-      <c r="H88" s="9" t="s">
+      <c r="H88" s="21" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="12.5">
-      <c r="A89" s="7">
+      <c r="A89" s="19">
         <v>585545</v>
       </c>
-      <c r="B89" s="8">
-        <v>0</v>
-      </c>
-      <c r="C89" s="9" t="s">
+      <c r="B89" s="20">
+        <v>0</v>
+      </c>
+      <c r="C89" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="D89" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E89" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F89" s="10">
+      <c r="D89" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E89" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F89" s="22">
         <v>8</v>
       </c>
-      <c r="G89" s="11">
+      <c r="G89" s="10">
         <v>40540</v>
       </c>
-      <c r="H89" s="9" t="s">
+      <c r="H89" s="21" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="12.5">
-      <c r="A90" s="7">
+      <c r="A90" s="19">
         <v>853351</v>
       </c>
-      <c r="B90" s="8">
-        <v>0</v>
-      </c>
-      <c r="C90" s="9" t="s">
+      <c r="B90" s="20">
+        <v>0</v>
+      </c>
+      <c r="C90" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="D90" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E90" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F90" s="10">
+      <c r="D90" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E90" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F90" s="22">
         <v>2</v>
       </c>
-      <c r="G90" s="11">
+      <c r="G90" s="10">
         <v>40532</v>
       </c>
-      <c r="H90" s="9" t="s">
+      <c r="H90" s="21" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="12.5">
-      <c r="A91" s="7">
+      <c r="A91" s="19">
         <v>853351</v>
       </c>
-      <c r="B91" s="8">
-        <v>0</v>
-      </c>
-      <c r="C91" s="9" t="s">
+      <c r="B91" s="20">
+        <v>0</v>
+      </c>
+      <c r="C91" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="D91" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E91" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F91" s="10">
+      <c r="D91" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E91" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F91" s="22">
         <v>4</v>
       </c>
-      <c r="G91" s="11">
+      <c r="G91" s="10">
         <v>40529</v>
       </c>
-      <c r="H91" s="9" t="s">
+      <c r="H91" s="21" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="12.5">
-      <c r="A92" s="7">
+      <c r="A92" s="19">
         <v>853351</v>
       </c>
-      <c r="B92" s="8">
-        <v>0</v>
-      </c>
-      <c r="C92" s="9" t="s">
+      <c r="B92" s="20">
+        <v>0</v>
+      </c>
+      <c r="C92" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="D92" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E92" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F92" s="10">
+      <c r="D92" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E92" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F92" s="22">
         <v>8</v>
       </c>
-      <c r="G92" s="11">
+      <c r="G92" s="10">
         <v>40533</v>
       </c>
-      <c r="H92" s="9" t="s">
+      <c r="H92" s="21" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="12.5">
-      <c r="A93" s="7">
+      <c r="A93" s="19">
         <v>972886</v>
       </c>
-      <c r="B93" s="8">
-        <v>0</v>
-      </c>
-      <c r="C93" s="9" t="s">
+      <c r="B93" s="20">
+        <v>0</v>
+      </c>
+      <c r="C93" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="D93" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E93" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F93" s="10">
+      <c r="D93" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E93" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F93" s="22">
         <v>1</v>
       </c>
-      <c r="G93" s="11">
+      <c r="G93" s="10">
         <v>40532</v>
       </c>
-      <c r="H93" s="9" t="s">
+      <c r="H93" s="21" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="12.5">
-      <c r="A94" s="7">
+      <c r="A94" s="19">
         <v>934035</v>
       </c>
-      <c r="B94" s="8">
-        <v>0</v>
-      </c>
-      <c r="C94" s="9" t="s">
+      <c r="B94" s="20">
+        <v>0</v>
+      </c>
+      <c r="C94" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="D94" s="9" t="s">
+      <c r="D94" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E94" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F94" s="10">
+      <c r="E94" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F94" s="22">
         <v>4</v>
       </c>
-      <c r="G94" s="11">
+      <c r="G94" s="10">
         <v>40547</v>
       </c>
-      <c r="H94" s="9" t="s">
+      <c r="H94" s="21" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="12.5">
-      <c r="A95" s="7">
+      <c r="A95" s="19">
         <v>459949</v>
       </c>
-      <c r="B95" s="8">
-        <v>0</v>
-      </c>
-      <c r="C95" s="9" t="s">
+      <c r="B95" s="20">
+        <v>0</v>
+      </c>
+      <c r="C95" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="D95" s="9" t="s">
+      <c r="D95" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E95" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F95" s="10">
+      <c r="E95" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F95" s="22">
         <v>5</v>
       </c>
-      <c r="G95" s="11">
+      <c r="G95" s="10">
         <v>40547</v>
       </c>
-      <c r="H95" s="9" t="s">
+      <c r="H95" s="21" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="12.5">
-      <c r="A96" s="7">
+      <c r="A96" s="19">
         <v>459949</v>
       </c>
-      <c r="B96" s="8">
-        <v>0</v>
-      </c>
-      <c r="C96" s="9" t="s">
+      <c r="B96" s="20">
+        <v>0</v>
+      </c>
+      <c r="C96" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="D96" s="9" t="s">
+      <c r="D96" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E96" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F96" s="10">
+      <c r="E96" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F96" s="22">
         <v>-4</v>
       </c>
-      <c r="G96" s="11">
+      <c r="G96" s="10">
         <v>40547</v>
       </c>
-      <c r="H96" s="9" t="s">
+      <c r="H96" s="21" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="12.5">
-      <c r="A97" s="7">
+      <c r="A97" s="19">
         <v>459949</v>
       </c>
-      <c r="B97" s="8">
-        <v>0</v>
-      </c>
-      <c r="C97" s="9" t="s">
+      <c r="B97" s="20">
+        <v>0</v>
+      </c>
+      <c r="C97" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="D97" s="9" t="s">
+      <c r="D97" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E97" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F97" s="10">
+      <c r="E97" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F97" s="22">
         <v>3</v>
       </c>
-      <c r="G97" s="11">
+      <c r="G97" s="10">
         <v>40548</v>
       </c>
-      <c r="H97" s="9" t="s">
+      <c r="H97" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="12.5">
-      <c r="A98" s="7">
+      <c r="A98" s="19">
         <v>377203</v>
       </c>
-      <c r="B98" s="8">
-        <v>0</v>
-      </c>
-      <c r="C98" s="9" t="s">
+      <c r="B98" s="20">
+        <v>0</v>
+      </c>
+      <c r="C98" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="D98" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E98" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F98" s="10">
+      <c r="D98" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E98" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F98" s="22">
         <v>1</v>
       </c>
-      <c r="G98" s="11">
+      <c r="G98" s="10">
         <v>40546</v>
       </c>
-      <c r="H98" s="9" t="s">
+      <c r="H98" s="21" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="12.5">
-      <c r="A99" s="7">
+      <c r="A99" s="19">
         <v>728279</v>
       </c>
-      <c r="B99" s="8">
-        <v>0</v>
-      </c>
-      <c r="C99" s="9" t="s">
+      <c r="B99" s="20">
+        <v>0</v>
+      </c>
+      <c r="C99" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="D99" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E99" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F99" s="10">
+      <c r="D99" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E99" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F99" s="22">
         <v>7</v>
       </c>
-      <c r="G99" s="11">
+      <c r="G99" s="10">
         <v>40549</v>
       </c>
-      <c r="H99" s="9" t="s">
+      <c r="H99" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="12.5">
-      <c r="A100" s="7">
+      <c r="A100" s="19">
         <v>642295</v>
       </c>
-      <c r="B100" s="8">
-        <v>0</v>
-      </c>
-      <c r="C100" s="9" t="s">
+      <c r="B100" s="20">
+        <v>0</v>
+      </c>
+      <c r="C100" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="D100" s="9" t="s">
+      <c r="D100" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E100" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F100" s="10">
+      <c r="E100" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F100" s="22">
         <v>8</v>
       </c>
-      <c r="G100" s="11">
+      <c r="G100" s="10">
         <v>40550</v>
       </c>
-      <c r="H100" s="9" t="s">
+      <c r="H100" s="21" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="12.5">
-      <c r="A101" s="7">
+      <c r="A101" s="19">
         <v>624084</v>
       </c>
-      <c r="B101" s="8">
-        <v>0</v>
-      </c>
-      <c r="C101" s="9" t="s">
+      <c r="B101" s="20">
+        <v>0</v>
+      </c>
+      <c r="C101" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D101" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E101" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F101" s="10">
+      <c r="D101" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E101" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F101" s="22">
         <v>-1.25</v>
       </c>
-      <c r="G101" s="11">
+      <c r="G101" s="10">
         <v>40528</v>
       </c>
-      <c r="H101" s="9" t="s">
+      <c r="H101" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="12.5">
-      <c r="A102" s="7">
+      <c r="A102" s="19">
         <v>624084</v>
       </c>
-      <c r="B102" s="8">
-        <v>0</v>
-      </c>
-      <c r="C102" s="9" t="s">
+      <c r="B102" s="20">
+        <v>0</v>
+      </c>
+      <c r="C102" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D102" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E102" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F102" s="10">
+      <c r="D102" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E102" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F102" s="22">
         <v>1.75</v>
       </c>
-      <c r="G102" s="11">
+      <c r="G102" s="10">
         <v>40528</v>
       </c>
-      <c r="H102" s="9" t="s">
+      <c r="H102" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="12.5">
-      <c r="A103" s="7">
+      <c r="A103" s="19">
         <v>728279</v>
       </c>
-      <c r="B103" s="8">
-        <v>0</v>
-      </c>
-      <c r="C103" s="9" t="s">
+      <c r="B103" s="20">
+        <v>0</v>
+      </c>
+      <c r="C103" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="D103" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E103" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F103" s="10">
+      <c r="D103" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E103" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F103" s="22">
         <v>2</v>
       </c>
-      <c r="G103" s="11">
+      <c r="G103" s="10">
         <v>40528</v>
       </c>
-      <c r="H103" s="9" t="s">
+      <c r="H103" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="12.5">
-      <c r="A104" s="7">
+      <c r="A104" s="19">
         <v>140990</v>
       </c>
-      <c r="B104" s="8">
-        <v>0</v>
-      </c>
-      <c r="C104" s="9" t="s">
+      <c r="B104" s="20">
+        <v>0</v>
+      </c>
+      <c r="C104" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D104" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E104" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F104" s="10">
+      <c r="D104" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E104" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F104" s="22">
         <v>3</v>
       </c>
-      <c r="G104" s="11">
+      <c r="G104" s="10">
         <v>40528</v>
       </c>
-      <c r="H104" s="9" t="s">
+      <c r="H104" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="12.5">
-      <c r="A105" s="7">
+      <c r="A105" s="19">
         <v>198333</v>
       </c>
-      <c r="B105" s="8">
+      <c r="B105" s="20">
         <v>1</v>
       </c>
-      <c r="C105" s="9" t="s">
+      <c r="C105" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="D105" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E105" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F105" s="10">
+      <c r="D105" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E105" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F105" s="22">
         <v>4</v>
       </c>
-      <c r="G105" s="11">
+      <c r="G105" s="10">
         <v>40528</v>
       </c>
-      <c r="H105" s="9" t="s">
+      <c r="H105" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="12.5">
-      <c r="A106" s="7">
+      <c r="A106" s="19">
         <v>44371</v>
       </c>
-      <c r="B106" s="8">
-        <v>0</v>
-      </c>
-      <c r="C106" s="9" t="s">
+      <c r="B106" s="20">
+        <v>0</v>
+      </c>
+      <c r="C106" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="D106" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E106" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F106" s="10">
+      <c r="D106" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E106" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F106" s="22">
         <v>3</v>
       </c>
-      <c r="G106" s="11">
+      <c r="G106" s="10">
         <v>40527</v>
       </c>
-      <c r="H106" s="9" t="s">
+      <c r="H106" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="12.5">
-      <c r="A107" s="7">
+      <c r="A107" s="19">
         <v>44371</v>
       </c>
-      <c r="B107" s="8">
-        <v>0</v>
-      </c>
-      <c r="C107" s="9" t="s">
+      <c r="B107" s="20">
+        <v>0</v>
+      </c>
+      <c r="C107" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="D107" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E107" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F107" s="10">
+      <c r="D107" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E107" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F107" s="22">
         <v>8</v>
       </c>
-      <c r="G107" s="11">
+      <c r="G107" s="10">
         <v>40528</v>
       </c>
-      <c r="H107" s="9" t="s">
+      <c r="H107" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="12.5">
-      <c r="A108" s="7">
+      <c r="A108" s="19">
         <v>988116</v>
       </c>
-      <c r="B108" s="8">
-        <v>0</v>
-      </c>
-      <c r="C108" s="9" t="s">
+      <c r="B108" s="20">
+        <v>0</v>
+      </c>
+      <c r="C108" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="D108" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E108" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F108" s="10">
+      <c r="D108" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E108" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F108" s="22">
         <v>7</v>
       </c>
-      <c r="G108" s="11">
+      <c r="G108" s="10">
         <v>40527</v>
       </c>
-      <c r="H108" s="9" t="s">
+      <c r="H108" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="12.5">
-      <c r="A109" s="7">
+      <c r="A109" s="19">
         <v>500684</v>
       </c>
-      <c r="B109" s="8">
-        <v>0</v>
-      </c>
-      <c r="C109" s="9" t="s">
+      <c r="B109" s="20">
+        <v>0</v>
+      </c>
+      <c r="C109" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="D109" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E109" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F109" s="10">
+      <c r="D109" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E109" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F109" s="22">
         <v>1</v>
       </c>
-      <c r="G109" s="11">
+      <c r="G109" s="10">
         <v>40528</v>
       </c>
-      <c r="H109" s="9" t="s">
+      <c r="H109" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="12.5">
-      <c r="A110" s="7">
+      <c r="A110" s="19">
         <v>429643</v>
       </c>
-      <c r="B110" s="8">
-        <v>0</v>
-      </c>
-      <c r="C110" s="9" t="s">
+      <c r="B110" s="20">
+        <v>0</v>
+      </c>
+      <c r="C110" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="D110" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E110" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F110" s="10">
+      <c r="D110" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E110" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F110" s="22">
         <v>8</v>
       </c>
-      <c r="G110" s="11">
+      <c r="G110" s="10">
         <v>40527</v>
       </c>
-      <c r="H110" s="9" t="s">
+      <c r="H110" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="12.5">
-      <c r="A111" s="7">
+      <c r="A111" s="19">
         <v>429643</v>
       </c>
-      <c r="B111" s="8">
-        <v>0</v>
-      </c>
-      <c r="C111" s="9" t="s">
+      <c r="B111" s="20">
+        <v>0</v>
+      </c>
+      <c r="C111" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="D111" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E111" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F111" s="10">
+      <c r="D111" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E111" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F111" s="22">
         <v>2.75</v>
       </c>
-      <c r="G111" s="11">
+      <c r="G111" s="10">
         <v>40528</v>
       </c>
-      <c r="H111" s="9" t="s">
+      <c r="H111" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="12.5">
-      <c r="A112" s="7">
+      <c r="A112" s="19">
         <v>738503</v>
       </c>
-      <c r="B112" s="8">
-        <v>0</v>
-      </c>
-      <c r="C112" s="9" t="s">
+      <c r="B112" s="20">
+        <v>0</v>
+      </c>
+      <c r="C112" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="D112" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E112" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F112" s="10">
+      <c r="D112" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E112" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F112" s="22">
         <v>1.25</v>
       </c>
-      <c r="G112" s="11">
+      <c r="G112" s="10">
         <v>40528</v>
       </c>
-      <c r="H112" s="9" t="s">
+      <c r="H112" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="12.5">
-      <c r="A113" s="7">
+      <c r="A113" s="19">
         <v>55381</v>
       </c>
-      <c r="B113" s="8">
-        <v>0</v>
-      </c>
-      <c r="C113" s="9" t="s">
+      <c r="B113" s="20">
+        <v>0</v>
+      </c>
+      <c r="C113" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="D113" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E113" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F113" s="10">
+      <c r="D113" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E113" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F113" s="22">
         <v>8</v>
       </c>
-      <c r="G113" s="11">
+      <c r="G113" s="10">
         <v>40527</v>
       </c>
-      <c r="H113" s="9" t="s">
+      <c r="H113" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="12.5">
-      <c r="A114" s="7">
+      <c r="A114" s="19">
         <v>115195</v>
       </c>
-      <c r="B114" s="8">
-        <v>0</v>
-      </c>
-      <c r="C114" s="9" t="s">
+      <c r="B114" s="20">
+        <v>0</v>
+      </c>
+      <c r="C114" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="D114" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E114" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F114" s="10">
+      <c r="D114" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E114" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F114" s="22">
         <v>1.5</v>
       </c>
-      <c r="G114" s="11">
+      <c r="G114" s="10">
         <v>40527</v>
       </c>
-      <c r="H114" s="9" t="s">
+      <c r="H114" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="12.5">
-      <c r="A115" s="7">
+      <c r="A115" s="19">
         <v>545521</v>
       </c>
-      <c r="B115" s="8">
-        <v>0</v>
-      </c>
-      <c r="C115" s="9" t="s">
+      <c r="B115" s="20">
+        <v>0</v>
+      </c>
+      <c r="C115" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="D115" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E115" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F115" s="10">
+      <c r="D115" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E115" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F115" s="22">
         <v>2.25</v>
       </c>
-      <c r="G115" s="11">
+      <c r="G115" s="10">
         <v>40528</v>
       </c>
-      <c r="H115" s="9" t="s">
+      <c r="H115" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="12.5">
-      <c r="A116" s="7">
+      <c r="A116" s="19">
         <v>775444</v>
       </c>
-      <c r="B116" s="8">
-        <v>0</v>
-      </c>
-      <c r="C116" s="9" t="s">
+      <c r="B116" s="20">
+        <v>0</v>
+      </c>
+      <c r="C116" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="D116" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E116" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F116" s="10">
+      <c r="D116" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E116" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F116" s="22">
         <v>1</v>
       </c>
-      <c r="G116" s="11">
+      <c r="G116" s="10">
         <v>40528</v>
       </c>
-      <c r="H116" s="9" t="s">
+      <c r="H116" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="12.5">
-      <c r="A117" s="7">
+      <c r="A117" s="19">
         <v>856465</v>
       </c>
-      <c r="B117" s="8">
-        <v>0</v>
-      </c>
-      <c r="C117" s="9" t="s">
+      <c r="B117" s="20">
+        <v>0</v>
+      </c>
+      <c r="C117" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="D117" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E117" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F117" s="10">
+      <c r="D117" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E117" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F117" s="22">
         <v>6</v>
       </c>
-      <c r="G117" s="11">
+      <c r="G117" s="10">
         <v>40527</v>
       </c>
-      <c r="H117" s="9" t="s">
+      <c r="H117" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="12.5">
-      <c r="A118" s="7">
+      <c r="A118" s="19">
         <v>555242</v>
       </c>
-      <c r="B118" s="8">
-        <v>0</v>
-      </c>
-      <c r="C118" s="9" t="s">
+      <c r="B118" s="20">
+        <v>0</v>
+      </c>
+      <c r="C118" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="D118" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E118" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F118" s="10">
+      <c r="D118" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E118" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F118" s="22">
         <v>3.5</v>
       </c>
-      <c r="G118" s="11">
+      <c r="G118" s="10">
         <v>40528</v>
       </c>
-      <c r="H118" s="9" t="s">
+      <c r="H118" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="12.5">
-      <c r="A119" s="7">
+      <c r="A119" s="19">
         <v>251999</v>
       </c>
-      <c r="B119" s="8">
-        <v>0</v>
-      </c>
-      <c r="C119" s="9" t="s">
+      <c r="B119" s="20">
+        <v>0</v>
+      </c>
+      <c r="C119" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="D119" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E119" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F119" s="10">
+      <c r="D119" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E119" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F119" s="22">
         <v>1.5</v>
       </c>
-      <c r="G119" s="11">
+      <c r="G119" s="10">
         <v>40528</v>
       </c>
-      <c r="H119" s="9" t="s">
+      <c r="H119" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="12.5">
-      <c r="A120" s="7">
+      <c r="A120" s="19">
         <v>99193</v>
       </c>
-      <c r="B120" s="8">
-        <v>0</v>
-      </c>
-      <c r="C120" s="9" t="s">
+      <c r="B120" s="20">
+        <v>0</v>
+      </c>
+      <c r="C120" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="D120" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E120" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F120" s="10">
+      <c r="D120" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E120" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F120" s="22">
         <v>4</v>
       </c>
-      <c r="G120" s="11">
+      <c r="G120" s="10">
         <v>40527</v>
       </c>
-      <c r="H120" s="9" t="s">
+      <c r="H120" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="12.5">
-      <c r="A121" s="7">
+      <c r="A121" s="19">
         <v>99193</v>
       </c>
-      <c r="B121" s="8">
-        <v>0</v>
-      </c>
-      <c r="C121" s="9" t="s">
+      <c r="B121" s="20">
+        <v>0</v>
+      </c>
+      <c r="C121" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="D121" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E121" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F121" s="10">
+      <c r="D121" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E121" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F121" s="22">
         <v>8</v>
       </c>
-      <c r="G121" s="11">
+      <c r="G121" s="10">
         <v>40528</v>
       </c>
-      <c r="H121" s="9" t="s">
+      <c r="H121" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="12.5">
-      <c r="A122" s="7">
+      <c r="A122" s="19">
         <v>392062</v>
       </c>
-      <c r="B122" s="8">
-        <v>0</v>
-      </c>
-      <c r="C122" s="9" t="s">
+      <c r="B122" s="20">
+        <v>0</v>
+      </c>
+      <c r="C122" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="D122" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E122" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F122" s="10">
+      <c r="D122" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E122" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F122" s="22">
         <v>8</v>
       </c>
-      <c r="G122" s="11">
+      <c r="G122" s="10">
         <v>40528</v>
       </c>
-      <c r="H122" s="9" t="s">
+      <c r="H122" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="12.5">
-      <c r="A123" s="7">
+      <c r="A123" s="19">
         <v>422727</v>
       </c>
-      <c r="B123" s="8">
-        <v>0</v>
-      </c>
-      <c r="C123" s="9" t="s">
+      <c r="B123" s="20">
+        <v>0</v>
+      </c>
+      <c r="C123" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="D123" s="9" t="s">
+      <c r="D123" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E123" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F123" s="10">
+      <c r="E123" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F123" s="22">
         <v>2</v>
       </c>
-      <c r="G123" s="11">
+      <c r="G123" s="10">
         <v>40528</v>
       </c>
-      <c r="H123" s="9" t="s">
+      <c r="H123" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="12.5">
-      <c r="A124" s="7">
+      <c r="A124" s="19">
         <v>377203</v>
       </c>
-      <c r="B124" s="8">
-        <v>0</v>
-      </c>
-      <c r="C124" s="9" t="s">
+      <c r="B124" s="20">
+        <v>0</v>
+      </c>
+      <c r="C124" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="D124" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E124" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F124" s="10">
+      <c r="D124" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E124" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F124" s="22">
         <v>1</v>
       </c>
-      <c r="G124" s="11">
+      <c r="G124" s="10">
         <v>40534</v>
       </c>
-      <c r="H124" s="9" t="s">
+      <c r="H124" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="12.5">
-      <c r="A125" s="7">
+      <c r="A125" s="19">
         <v>654062</v>
       </c>
-      <c r="B125" s="8">
-        <v>0</v>
-      </c>
-      <c r="C125" s="9" t="s">
+      <c r="B125" s="20">
+        <v>0</v>
+      </c>
+      <c r="C125" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="D125" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E125" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F125" s="10">
+      <c r="D125" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E125" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F125" s="22">
         <v>8</v>
       </c>
-      <c r="G125" s="11">
+      <c r="G125" s="10">
         <v>40533</v>
       </c>
-      <c r="H125" s="9" t="s">
+      <c r="H125" s="21" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="12.5">
-      <c r="A126" s="7">
+      <c r="A126" s="19">
         <v>755355</v>
       </c>
-      <c r="B126" s="8">
-        <v>0</v>
-      </c>
-      <c r="C126" s="9" t="s">
+      <c r="B126" s="20">
+        <v>0</v>
+      </c>
+      <c r="C126" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="D126" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E126" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F126" s="10">
+      <c r="D126" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E126" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F126" s="22">
         <v>8</v>
       </c>
-      <c r="G126" s="11">
+      <c r="G126" s="10">
         <v>40533</v>
       </c>
-      <c r="H126" s="9" t="s">
+      <c r="H126" s="21" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="12.5">
-      <c r="A127" s="7">
+      <c r="A127" s="19">
         <v>555862</v>
       </c>
-      <c r="B127" s="8">
-        <v>0</v>
-      </c>
-      <c r="C127" s="9" t="s">
+      <c r="B127" s="20">
+        <v>0</v>
+      </c>
+      <c r="C127" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="D127" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E127" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F127" s="10">
+      <c r="D127" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E127" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F127" s="22">
         <v>2</v>
       </c>
-      <c r="G127" s="11">
+      <c r="G127" s="10">
         <v>40529</v>
       </c>
-      <c r="H127" s="9" t="s">
+      <c r="H127" s="21" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="12.5">
-      <c r="A128" s="7">
+      <c r="A128" s="19">
         <v>338561</v>
       </c>
-      <c r="B128" s="8">
-        <v>0</v>
-      </c>
-      <c r="C128" s="9" t="s">
+      <c r="B128" s="20">
+        <v>0</v>
+      </c>
+      <c r="C128" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="D128" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E128" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F128" s="10">
+      <c r="D128" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E128" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F128" s="22">
         <v>1</v>
       </c>
-      <c r="G128" s="11">
+      <c r="G128" s="10">
         <v>40540</v>
       </c>
-      <c r="H128" s="9" t="s">
+      <c r="H128" s="21" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="12.5">
-      <c r="A129" s="7">
+      <c r="A129" s="19">
         <v>226479</v>
       </c>
-      <c r="B129" s="8">
-        <v>0</v>
-      </c>
-      <c r="C129" s="9" t="s">
+      <c r="B129" s="20">
+        <v>0</v>
+      </c>
+      <c r="C129" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="D129" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E129" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F129" s="10">
+      <c r="D129" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E129" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F129" s="22">
         <v>1</v>
       </c>
-      <c r="G129" s="11">
+      <c r="G129" s="10">
         <v>40532</v>
       </c>
-      <c r="H129" s="9" t="s">
+      <c r="H129" s="21" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="12.5">
-      <c r="A130" s="7">
+      <c r="A130" s="19">
         <v>226479</v>
       </c>
-      <c r="B130" s="8">
-        <v>0</v>
-      </c>
-      <c r="C130" s="9" t="s">
+      <c r="B130" s="20">
+        <v>0</v>
+      </c>
+      <c r="C130" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="D130" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E130" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F130" s="10">
+      <c r="D130" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E130" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F130" s="22">
         <v>2</v>
       </c>
-      <c r="G130" s="11">
+      <c r="G130" s="10">
         <v>40535</v>
       </c>
-      <c r="H130" s="9" t="s">
+      <c r="H130" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="12.5">
-      <c r="A131" s="7">
+      <c r="A131" s="19">
         <v>500684</v>
       </c>
-      <c r="B131" s="8">
-        <v>0</v>
-      </c>
-      <c r="C131" s="9" t="s">
+      <c r="B131" s="20">
+        <v>0</v>
+      </c>
+      <c r="C131" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="D131" s="9" t="s">
+      <c r="D131" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E131" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F131" s="10">
+      <c r="E131" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F131" s="22">
         <v>3</v>
       </c>
-      <c r="G131" s="11">
+      <c r="G131" s="10">
         <v>40532</v>
       </c>
-      <c r="H131" s="9" t="s">
+      <c r="H131" s="21" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="12.5">
-      <c r="A132" s="7">
+      <c r="A132" s="19">
         <v>462639</v>
       </c>
-      <c r="B132" s="8">
-        <v>0</v>
-      </c>
-      <c r="C132" s="9" t="s">
+      <c r="B132" s="20">
+        <v>0</v>
+      </c>
+      <c r="C132" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D132" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E132" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F132" s="10">
+      <c r="D132" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E132" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F132" s="22">
         <v>5</v>
       </c>
-      <c r="G132" s="11">
+      <c r="G132" s="10">
         <v>40541</v>
       </c>
-      <c r="H132" s="9" t="s">
+      <c r="H132" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="12.5">
-      <c r="A133" s="7">
+      <c r="A133" s="19">
         <v>793716</v>
       </c>
-      <c r="B133" s="8">
-        <v>0</v>
-      </c>
-      <c r="C133" s="9" t="s">
+      <c r="B133" s="20">
+        <v>0</v>
+      </c>
+      <c r="C133" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="D133" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E133" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F133" s="10">
+      <c r="D133" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E133" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F133" s="22">
         <v>1</v>
       </c>
-      <c r="G133" s="11">
+      <c r="G133" s="10">
         <v>40529</v>
       </c>
-      <c r="H133" s="9" t="s">
+      <c r="H133" s="21" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="12.5">
-      <c r="A134" s="7">
+      <c r="A134" s="19">
         <v>301384</v>
       </c>
-      <c r="B134" s="8">
-        <v>0</v>
-      </c>
-      <c r="C134" s="9" t="s">
+      <c r="B134" s="20">
+        <v>0</v>
+      </c>
+      <c r="C134" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="D134" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E134" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F134" s="10">
+      <c r="D134" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E134" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F134" s="22">
         <v>4</v>
       </c>
-      <c r="G134" s="11">
+      <c r="G134" s="10">
         <v>40540</v>
       </c>
-      <c r="H134" s="9" t="s">
+      <c r="H134" s="21" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="12.5">
-      <c r="A135" s="7">
+      <c r="A135" s="19">
         <v>113347</v>
       </c>
-      <c r="B135" s="8">
-        <v>0</v>
-      </c>
-      <c r="C135" s="9" t="s">
+      <c r="B135" s="20">
+        <v>0</v>
+      </c>
+      <c r="C135" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="D135" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E135" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F135" s="10">
+      <c r="D135" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E135" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F135" s="22">
         <v>2</v>
       </c>
-      <c r="G135" s="11">
+      <c r="G135" s="10">
         <v>40529</v>
       </c>
-      <c r="H135" s="9" t="s">
+      <c r="H135" s="21" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="12.5">
-      <c r="A136" s="7">
+      <c r="A136" s="19">
         <v>398541</v>
       </c>
-      <c r="B136" s="8">
-        <v>0</v>
-      </c>
-      <c r="C136" s="9" t="s">
+      <c r="B136" s="20">
+        <v>0</v>
+      </c>
+      <c r="C136" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="D136" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E136" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F136" s="10">
+      <c r="D136" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E136" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F136" s="22">
         <v>8</v>
       </c>
-      <c r="G136" s="11">
+      <c r="G136" s="10">
         <v>40540</v>
       </c>
-      <c r="H136" s="9" t="s">
+      <c r="H136" s="21" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="12.5">
-      <c r="A137" s="7">
+      <c r="A137" s="19">
         <v>288928</v>
       </c>
-      <c r="B137" s="8">
-        <v>0</v>
-      </c>
-      <c r="C137" s="9" t="s">
+      <c r="B137" s="20">
+        <v>0</v>
+      </c>
+      <c r="C137" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="D137" s="9" t="s">
+      <c r="D137" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E137" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F137" s="10">
+      <c r="E137" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F137" s="22">
         <v>6</v>
       </c>
-      <c r="G137" s="11">
+      <c r="G137" s="10">
         <v>40529</v>
       </c>
-      <c r="H137" s="9" t="s">
+      <c r="H137" s="21" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="12.5">
-      <c r="A138" s="7">
+      <c r="A138" s="19">
         <v>775167</v>
       </c>
-      <c r="B138" s="8">
-        <v>0</v>
-      </c>
-      <c r="C138" s="9" t="s">
+      <c r="B138" s="20">
+        <v>0</v>
+      </c>
+      <c r="C138" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="D138" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E138" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F138" s="10">
+      <c r="D138" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E138" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F138" s="22">
         <v>3</v>
       </c>
-      <c r="G138" s="11">
+      <c r="G138" s="10">
         <v>40532</v>
       </c>
-      <c r="H138" s="9" t="s">
+      <c r="H138" s="21" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="12.5">
-      <c r="A139" s="7">
+      <c r="A139" s="19">
         <v>775167</v>
       </c>
-      <c r="B139" s="8">
-        <v>0</v>
-      </c>
-      <c r="C139" s="9" t="s">
+      <c r="B139" s="20">
+        <v>0</v>
+      </c>
+      <c r="C139" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="D139" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E139" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F139" s="10">
+      <c r="D139" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E139" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F139" s="22">
         <v>3</v>
       </c>
-      <c r="G139" s="11">
+      <c r="G139" s="10">
         <v>40529</v>
       </c>
-      <c r="H139" s="9" t="s">
+      <c r="H139" s="21" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="12.5">
-      <c r="A140" s="7">
+      <c r="A140" s="19">
         <v>775444</v>
       </c>
-      <c r="B140" s="8">
-        <v>0</v>
-      </c>
-      <c r="C140" s="9" t="s">
+      <c r="B140" s="20">
+        <v>0</v>
+      </c>
+      <c r="C140" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="D140" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E140" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F140" s="10">
+      <c r="D140" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E140" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F140" s="22">
         <v>8</v>
       </c>
-      <c r="G140" s="11">
+      <c r="G140" s="10">
         <v>40541</v>
       </c>
-      <c r="H140" s="9" t="s">
+      <c r="H140" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="12.5">
-      <c r="A141" s="7">
+      <c r="A141" s="19">
         <v>775167</v>
       </c>
-      <c r="B141" s="8">
-        <v>0</v>
-      </c>
-      <c r="C141" s="9" t="s">
+      <c r="B141" s="20">
+        <v>0</v>
+      </c>
+      <c r="C141" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="D141" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E141" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F141" s="10">
+      <c r="D141" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E141" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F141" s="22">
         <v>8</v>
       </c>
-      <c r="G141" s="11">
+      <c r="G141" s="10">
         <v>40533</v>
       </c>
-      <c r="H141" s="9" t="s">
+      <c r="H141" s="21" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="12.5">
-      <c r="A142" s="7">
+      <c r="A142" s="19">
         <v>775167</v>
       </c>
-      <c r="B142" s="8">
-        <v>0</v>
-      </c>
-      <c r="C142" s="9" t="s">
+      <c r="B142" s="20">
+        <v>0</v>
+      </c>
+      <c r="C142" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="D142" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E142" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F142" s="10">
+      <c r="D142" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E142" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F142" s="22">
         <v>3</v>
       </c>
-      <c r="G142" s="11">
+      <c r="G142" s="10">
         <v>40534</v>
       </c>
-      <c r="H142" s="9" t="s">
+      <c r="H142" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="12.5">
-      <c r="A143" s="7">
+      <c r="A143" s="19">
         <v>775167</v>
       </c>
-      <c r="B143" s="8">
-        <v>0</v>
-      </c>
-      <c r="C143" s="9" t="s">
+      <c r="B143" s="20">
+        <v>0</v>
+      </c>
+      <c r="C143" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="D143" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E143" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F143" s="10">
+      <c r="D143" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E143" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F143" s="22">
         <v>3</v>
       </c>
-      <c r="G143" s="11">
+      <c r="G143" s="10">
         <v>40540</v>
       </c>
-      <c r="H143" s="9" t="s">
+      <c r="H143" s="21" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="12.5">
-      <c r="A144" s="7">
+      <c r="A144" s="19">
         <v>775167</v>
       </c>
-      <c r="B144" s="8">
-        <v>0</v>
-      </c>
-      <c r="C144" s="9" t="s">
+      <c r="B144" s="20">
+        <v>0</v>
+      </c>
+      <c r="C144" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="D144" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E144" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F144" s="10">
+      <c r="D144" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E144" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F144" s="22">
         <v>3</v>
       </c>
-      <c r="G144" s="11">
+      <c r="G144" s="10">
         <v>40541</v>
       </c>
-      <c r="H144" s="9" t="s">
+      <c r="H144" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="12.5">
-      <c r="A145" s="7">
+      <c r="A145" s="19">
         <v>130559</v>
       </c>
-      <c r="B145" s="8">
-        <v>0</v>
-      </c>
-      <c r="C145" s="9" t="s">
+      <c r="B145" s="20">
+        <v>0</v>
+      </c>
+      <c r="C145" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="D145" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E145" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F145" s="10">
+      <c r="D145" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E145" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F145" s="22">
         <v>2</v>
       </c>
-      <c r="G145" s="11">
+      <c r="G145" s="10">
         <v>40534</v>
       </c>
-      <c r="H145" s="9" t="s">
+      <c r="H145" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="12.5">
-      <c r="A146" s="7">
+      <c r="A146" s="19">
         <v>437881</v>
       </c>
-      <c r="B146" s="8">
-        <v>0</v>
-      </c>
-      <c r="C146" s="9" t="s">
+      <c r="B146" s="20">
+        <v>0</v>
+      </c>
+      <c r="C146" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="D146" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E146" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F146" s="10">
+      <c r="D146" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E146" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F146" s="22">
         <v>3.5</v>
       </c>
-      <c r="G146" s="11">
+      <c r="G146" s="10">
         <v>40532</v>
       </c>
-      <c r="H146" s="9" t="s">
+      <c r="H146" s="21" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="12.5">
-      <c r="A147" s="7">
+      <c r="A147" s="19">
         <v>641295</v>
       </c>
-      <c r="B147" s="8">
-        <v>0</v>
-      </c>
-      <c r="C147" s="9" t="s">
+      <c r="B147" s="20">
+        <v>0</v>
+      </c>
+      <c r="C147" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="D147" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E147" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F147" s="10">
+      <c r="D147" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E147" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F147" s="22">
         <v>3</v>
       </c>
-      <c r="G147" s="11">
+      <c r="G147" s="10">
         <v>40529</v>
       </c>
-      <c r="H147" s="9" t="s">
+      <c r="H147" s="21" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="12.5">
-      <c r="A148" s="7">
+      <c r="A148" s="19">
         <v>371859</v>
       </c>
-      <c r="B148" s="8">
-        <v>0</v>
-      </c>
-      <c r="C148" s="9" t="s">
+      <c r="B148" s="20">
+        <v>0</v>
+      </c>
+      <c r="C148" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="D148" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E148" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F148" s="10">
+      <c r="D148" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E148" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F148" s="22">
         <v>4</v>
       </c>
-      <c r="G148" s="11">
+      <c r="G148" s="10">
         <v>40533</v>
       </c>
-      <c r="H148" s="9" t="s">
+      <c r="H148" s="21" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="12.5">
-      <c r="A149" s="7">
+      <c r="A149" s="19">
         <v>371859</v>
       </c>
-      <c r="B149" s="8">
-        <v>0</v>
-      </c>
-      <c r="C149" s="9" t="s">
+      <c r="B149" s="20">
+        <v>0</v>
+      </c>
+      <c r="C149" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="D149" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E149" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F149" s="10">
+      <c r="D149" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E149" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F149" s="22">
         <v>2</v>
       </c>
-      <c r="G149" s="11">
+      <c r="G149" s="10">
         <v>40534</v>
       </c>
-      <c r="H149" s="9" t="s">
+      <c r="H149" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="12.5">
-      <c r="A150" s="7">
+      <c r="A150" s="19">
         <v>245734</v>
       </c>
-      <c r="B150" s="8">
-        <v>0</v>
-      </c>
-      <c r="C150" s="9" t="s">
+      <c r="B150" s="20">
+        <v>0</v>
+      </c>
+      <c r="C150" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="D150" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E150" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F150" s="10">
+      <c r="D150" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E150" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F150" s="22">
         <v>8</v>
       </c>
-      <c r="G150" s="11">
+      <c r="G150" s="10">
         <v>40541</v>
       </c>
-      <c r="H150" s="9" t="s">
+      <c r="H150" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="12.5">
-      <c r="A151" s="7">
+      <c r="A151" s="19">
         <v>569961</v>
       </c>
-      <c r="B151" s="8">
-        <v>0</v>
-      </c>
-      <c r="C151" s="9" t="s">
+      <c r="B151" s="20">
+        <v>0</v>
+      </c>
+      <c r="C151" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="D151" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E151" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F151" s="10">
+      <c r="D151" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E151" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F151" s="22">
         <v>1</v>
       </c>
-      <c r="G151" s="11">
+      <c r="G151" s="10">
         <v>40546</v>
       </c>
-      <c r="H151" s="9" t="s">
+      <c r="H151" s="21" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="12.5">
-      <c r="A152" s="7">
+      <c r="A152" s="19">
         <v>245734</v>
       </c>
-      <c r="B152" s="8">
-        <v>0</v>
-      </c>
-      <c r="C152" s="9" t="s">
+      <c r="B152" s="20">
+        <v>0</v>
+      </c>
+      <c r="C152" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="D152" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E152" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F152" s="10">
+      <c r="D152" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E152" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F152" s="22">
         <v>8</v>
       </c>
-      <c r="G152" s="11">
+      <c r="G152" s="10">
         <v>40540</v>
       </c>
-      <c r="H152" s="9" t="s">
+      <c r="H152" s="21" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="12.5">
-      <c r="A153" s="7">
+      <c r="A153" s="19">
         <v>545521</v>
       </c>
-      <c r="B153" s="8">
-        <v>0</v>
-      </c>
-      <c r="C153" s="9" t="s">
+      <c r="B153" s="20">
+        <v>0</v>
+      </c>
+      <c r="C153" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="D153" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E153" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F153" s="10">
+      <c r="D153" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E153" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F153" s="22">
         <v>2</v>
       </c>
-      <c r="G153" s="11">
+      <c r="G153" s="10">
         <v>40540</v>
       </c>
-      <c r="H153" s="9" t="s">
+      <c r="H153" s="21" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="12.5">
-      <c r="A154" s="7">
+      <c r="A154" s="19">
         <v>115195</v>
       </c>
-      <c r="B154" s="8">
-        <v>0</v>
-      </c>
-      <c r="C154" s="9" t="s">
+      <c r="B154" s="20">
+        <v>0</v>
+      </c>
+      <c r="C154" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="D154" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E154" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F154" s="10">
+      <c r="D154" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E154" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F154" s="22">
         <v>0.5</v>
       </c>
-      <c r="G154" s="11">
+      <c r="G154" s="10">
         <v>40541</v>
       </c>
-      <c r="H154" s="9" t="s">
+      <c r="H154" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="12.5">
-      <c r="A155" s="7">
+      <c r="A155" s="19">
         <v>798649</v>
       </c>
-      <c r="B155" s="8">
-        <v>0</v>
-      </c>
-      <c r="C155" s="9" t="s">
+      <c r="B155" s="20">
+        <v>0</v>
+      </c>
+      <c r="C155" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="D155" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E155" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F155" s="10">
+      <c r="D155" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E155" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F155" s="22">
         <v>3.5</v>
       </c>
-      <c r="G155" s="11">
+      <c r="G155" s="10">
         <v>40529</v>
       </c>
-      <c r="H155" s="9" t="s">
+      <c r="H155" s="21" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="12.5">
-      <c r="A156" s="7">
+      <c r="A156" s="19">
         <v>747126</v>
       </c>
-      <c r="B156" s="8">
-        <v>0</v>
-      </c>
-      <c r="C156" s="9" t="s">
+      <c r="B156" s="20">
+        <v>0</v>
+      </c>
+      <c r="C156" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="D156" s="9" t="s">
+      <c r="D156" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E156" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F156" s="10">
+      <c r="E156" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F156" s="22">
         <v>8</v>
       </c>
-      <c r="G156" s="11">
+      <c r="G156" s="10">
         <v>40540</v>
       </c>
-      <c r="H156" s="9" t="s">
+      <c r="H156" s="21" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="12.5">
-      <c r="A157" s="7">
+      <c r="A157" s="19">
         <v>739647</v>
       </c>
-      <c r="B157" s="8">
-        <v>0</v>
-      </c>
-      <c r="C157" s="9" t="s">
+      <c r="B157" s="20">
+        <v>0</v>
+      </c>
+      <c r="C157" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="D157" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E157" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F157" s="10">
+      <c r="D157" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E157" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F157" s="22">
         <v>2</v>
       </c>
-      <c r="G157" s="11">
+      <c r="G157" s="10">
         <v>40541</v>
       </c>
-      <c r="H157" s="9" t="s">
+      <c r="H157" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="12.5">
-      <c r="A158" s="7">
+      <c r="A158" s="19">
         <v>292456</v>
       </c>
-      <c r="B158" s="8">
-        <v>0</v>
-      </c>
-      <c r="C158" s="9" t="s">
+      <c r="B158" s="20">
+        <v>0</v>
+      </c>
+      <c r="C158" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="D158" s="9" t="s">
+      <c r="D158" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E158" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F158" s="10">
+      <c r="E158" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F158" s="22">
         <v>0.5</v>
       </c>
-      <c r="G158" s="11">
+      <c r="G158" s="10">
         <v>40534</v>
       </c>
-      <c r="H158" s="9" t="s">
+      <c r="H158" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="12.5">
-      <c r="A159" s="7">
+      <c r="A159" s="19">
         <v>425584</v>
       </c>
-      <c r="B159" s="8">
-        <v>0</v>
-      </c>
-      <c r="C159" s="9" t="s">
+      <c r="B159" s="20">
+        <v>0</v>
+      </c>
+      <c r="C159" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="D159" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E159" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F159" s="10">
+      <c r="D159" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E159" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F159" s="22">
         <v>8</v>
       </c>
-      <c r="G159" s="11">
+      <c r="G159" s="10">
         <v>40540</v>
       </c>
-      <c r="H159" s="9" t="s">
+      <c r="H159" s="21" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="12.5">
-      <c r="A160" s="7">
+      <c r="A160" s="19">
         <v>872321</v>
       </c>
-      <c r="B160" s="8">
-        <v>0</v>
-      </c>
-      <c r="C160" s="9" t="s">
+      <c r="B160" s="20">
+        <v>0</v>
+      </c>
+      <c r="C160" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="D160" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E160" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F160" s="10">
+      <c r="D160" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E160" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F160" s="22">
         <v>1.75</v>
       </c>
-      <c r="G160" s="11">
+      <c r="G160" s="10">
         <v>40534</v>
       </c>
-      <c r="H160" s="9" t="s">
+      <c r="H160" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="12.5">
-      <c r="A161" s="7">
+      <c r="A161" s="19">
         <v>261528</v>
       </c>
-      <c r="B161" s="8">
-        <v>0</v>
-      </c>
-      <c r="C161" s="9" t="s">
+      <c r="B161" s="20">
+        <v>0</v>
+      </c>
+      <c r="C161" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D161" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E161" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F161" s="10">
+      <c r="D161" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E161" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F161" s="22">
         <v>8</v>
       </c>
-      <c r="G161" s="11">
+      <c r="G161" s="10">
         <v>40529</v>
       </c>
-      <c r="H161" s="9" t="s">
+      <c r="H161" s="21" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="12.5">
-      <c r="A162" s="7">
+      <c r="A162" s="19">
         <v>280348</v>
       </c>
-      <c r="B162" s="8">
-        <v>0</v>
-      </c>
-      <c r="C162" s="9" t="s">
+      <c r="B162" s="20">
+        <v>0</v>
+      </c>
+      <c r="C162" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="D162" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E162" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F162" s="10">
+      <c r="D162" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E162" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F162" s="22">
         <v>8</v>
       </c>
-      <c r="G162" s="11">
+      <c r="G162" s="10">
         <v>40533</v>
       </c>
-      <c r="H162" s="9" t="s">
+      <c r="H162" s="21" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="12.5">
-      <c r="A163" s="7">
+      <c r="A163" s="19">
         <v>515931</v>
       </c>
-      <c r="B163" s="8">
-        <v>0</v>
-      </c>
-      <c r="C163" s="9" t="s">
+      <c r="B163" s="20">
+        <v>0</v>
+      </c>
+      <c r="C163" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="D163" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E163" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F163" s="10">
+      <c r="D163" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E163" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F163" s="22">
         <v>8</v>
       </c>
-      <c r="G163" s="11">
+      <c r="G163" s="10">
         <v>40535</v>
       </c>
-      <c r="H163" s="9" t="s">
+      <c r="H163" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="12.5">
-      <c r="A164" s="7">
+      <c r="A164" s="19">
         <v>515931</v>
       </c>
-      <c r="B164" s="8">
-        <v>0</v>
-      </c>
-      <c r="C164" s="9" t="s">
+      <c r="B164" s="20">
+        <v>0</v>
+      </c>
+      <c r="C164" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="D164" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E164" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F164" s="10">
+      <c r="D164" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E164" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F164" s="22">
         <v>8</v>
       </c>
-      <c r="G164" s="11">
+      <c r="G164" s="10">
         <v>40540</v>
       </c>
-      <c r="H164" s="9" t="s">
+      <c r="H164" s="21" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="12.5">
-      <c r="A165" s="7">
+      <c r="A165" s="19">
         <v>515931</v>
       </c>
-      <c r="B165" s="8">
-        <v>0</v>
-      </c>
-      <c r="C165" s="9" t="s">
+      <c r="B165" s="20">
+        <v>0</v>
+      </c>
+      <c r="C165" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="D165" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E165" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F165" s="10">
+      <c r="D165" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E165" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F165" s="22">
         <v>8</v>
       </c>
-      <c r="G165" s="11">
+      <c r="G165" s="10">
         <v>40541</v>
       </c>
-      <c r="H165" s="9" t="s">
+      <c r="H165" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="12.5">
-      <c r="A166" s="7">
+      <c r="A166" s="19">
         <v>515931</v>
       </c>
-      <c r="B166" s="8">
-        <v>0</v>
-      </c>
-      <c r="C166" s="9" t="s">
+      <c r="B166" s="20">
+        <v>0</v>
+      </c>
+      <c r="C166" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="D166" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E166" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F166" s="10">
+      <c r="D166" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E166" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F166" s="22">
         <v>8</v>
       </c>
-      <c r="G166" s="11">
+      <c r="G166" s="10">
         <v>40542</v>
       </c>
-      <c r="H166" s="9" t="s">
+      <c r="H166" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="12.5">
-      <c r="A167" s="7">
+      <c r="A167" s="19">
         <v>170542</v>
       </c>
-      <c r="B167" s="8">
-        <v>0</v>
-      </c>
-      <c r="C167" s="9" t="s">
+      <c r="B167" s="20">
+        <v>0</v>
+      </c>
+      <c r="C167" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="D167" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E167" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F167" s="10">
+      <c r="D167" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E167" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F167" s="22">
         <v>8</v>
       </c>
-      <c r="G167" s="11">
+      <c r="G167" s="10">
         <v>40533</v>
       </c>
-      <c r="H167" s="9" t="s">
+      <c r="H167" s="21" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="12.5">
-      <c r="A168" s="7">
+      <c r="A168" s="19">
         <v>170542</v>
       </c>
-      <c r="B168" s="8">
-        <v>0</v>
-      </c>
-      <c r="C168" s="9" t="s">
+      <c r="B168" s="20">
+        <v>0</v>
+      </c>
+      <c r="C168" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="D168" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E168" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F168" s="10">
+      <c r="D168" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E168" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F168" s="22">
         <v>4</v>
       </c>
-      <c r="G168" s="11">
+      <c r="G168" s="10">
         <v>40532</v>
       </c>
-      <c r="H168" s="9" t="s">
+      <c r="H168" s="21" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="12.5">
-      <c r="A169" s="7">
+      <c r="A169" s="19">
         <v>99193</v>
       </c>
-      <c r="B169" s="8">
-        <v>0</v>
-      </c>
-      <c r="C169" s="9" t="s">
+      <c r="B169" s="20">
+        <v>0</v>
+      </c>
+      <c r="C169" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="D169" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E169" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F169" s="10">
+      <c r="D169" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E169" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F169" s="22">
         <v>6.75</v>
       </c>
-      <c r="G169" s="11">
+      <c r="G169" s="10">
         <v>40529</v>
       </c>
-      <c r="H169" s="9" t="s">
+      <c r="H169" s="21" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="12.5">
-      <c r="A170" s="7">
+      <c r="A170" s="19">
         <v>682726</v>
       </c>
-      <c r="B170" s="8">
-        <v>0</v>
-      </c>
-      <c r="C170" s="9" t="s">
+      <c r="B170" s="20">
+        <v>0</v>
+      </c>
+      <c r="C170" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D170" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E170" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F170" s="10">
+      <c r="D170" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E170" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F170" s="22">
         <v>2</v>
       </c>
-      <c r="G170" s="11">
+      <c r="G170" s="10">
         <v>40541</v>
       </c>
-      <c r="H170" s="9" t="s">
+      <c r="H170" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="12.5">
-      <c r="A171" s="7">
+      <c r="A171" s="19">
         <v>689074</v>
       </c>
-      <c r="B171" s="8">
-        <v>0</v>
-      </c>
-      <c r="C171" s="9" t="s">
+      <c r="B171" s="20">
+        <v>0</v>
+      </c>
+      <c r="C171" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="D171" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E171" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F171" s="10">
+      <c r="D171" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E171" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F171" s="22">
         <v>-8</v>
       </c>
-      <c r="G171" s="11">
+      <c r="G171" s="10">
         <v>40540</v>
       </c>
-      <c r="H171" s="9" t="s">
+      <c r="H171" s="21" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="12.5">
-      <c r="A172" s="7">
+      <c r="A172" s="19">
         <v>689074</v>
       </c>
-      <c r="B172" s="8">
-        <v>0</v>
-      </c>
-      <c r="C172" s="9" t="s">
+      <c r="B172" s="20">
+        <v>0</v>
+      </c>
+      <c r="C172" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="D172" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E172" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F172" s="10">
+      <c r="D172" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E172" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F172" s="22">
         <v>8</v>
       </c>
-      <c r="G172" s="11">
+      <c r="G172" s="10">
         <v>40540</v>
       </c>
-      <c r="H172" s="9" t="s">
+      <c r="H172" s="21" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="12.5">
-      <c r="A173" s="7">
+      <c r="A173" s="19">
         <v>689074</v>
       </c>
-      <c r="B173" s="8">
-        <v>0</v>
-      </c>
-      <c r="C173" s="9" t="s">
+      <c r="B173" s="20">
+        <v>0</v>
+      </c>
+      <c r="C173" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="D173" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E173" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F173" s="10">
+      <c r="D173" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E173" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F173" s="22">
         <v>-8</v>
       </c>
-      <c r="G173" s="11">
+      <c r="G173" s="10">
         <v>40541</v>
       </c>
-      <c r="H173" s="9" t="s">
+      <c r="H173" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="12.5">
-      <c r="A174" s="7">
+      <c r="A174" s="19">
         <v>689074</v>
       </c>
-      <c r="B174" s="8">
-        <v>0</v>
-      </c>
-      <c r="C174" s="9" t="s">
+      <c r="B174" s="20">
+        <v>0</v>
+      </c>
+      <c r="C174" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="D174" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E174" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F174" s="10">
+      <c r="D174" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E174" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F174" s="22">
         <v>8</v>
       </c>
-      <c r="G174" s="11">
+      <c r="G174" s="10">
         <v>40541</v>
       </c>
-      <c r="H174" s="9" t="s">
+      <c r="H174" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="12.5">
-      <c r="A175" s="7">
+      <c r="A175" s="19">
         <v>689074</v>
       </c>
-      <c r="B175" s="8">
-        <v>0</v>
-      </c>
-      <c r="C175" s="9" t="s">
+      <c r="B175" s="20">
+        <v>0</v>
+      </c>
+      <c r="C175" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="D175" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E175" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F175" s="10">
+      <c r="D175" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E175" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F175" s="22">
         <v>-8</v>
       </c>
-      <c r="G175" s="11">
+      <c r="G175" s="10">
         <v>40542</v>
       </c>
-      <c r="H175" s="9" t="s">
+      <c r="H175" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="12.5">
-      <c r="A176" s="7">
+      <c r="A176" s="19">
         <v>689074</v>
       </c>
-      <c r="B176" s="8">
-        <v>0</v>
-      </c>
-      <c r="C176" s="9" t="s">
+      <c r="B176" s="20">
+        <v>0</v>
+      </c>
+      <c r="C176" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="D176" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E176" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F176" s="10">
+      <c r="D176" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E176" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F176" s="22">
         <v>8</v>
       </c>
-      <c r="G176" s="11">
+      <c r="G176" s="10">
         <v>40542</v>
       </c>
-      <c r="H176" s="9" t="s">
+      <c r="H176" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="12.5">
-      <c r="A177" s="7">
+      <c r="A177" s="19">
         <v>609303</v>
       </c>
-      <c r="B177" s="8">
+      <c r="B177" s="20">
         <v>1</v>
       </c>
-      <c r="C177" s="9" t="s">
+      <c r="C177" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="D177" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E177" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F177" s="10">
+      <c r="D177" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E177" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F177" s="22">
         <v>8</v>
       </c>
-      <c r="G177" s="11">
+      <c r="G177" s="10">
         <v>40540</v>
       </c>
-      <c r="H177" s="9" t="s">
+      <c r="H177" s="21" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="178" spans="1:8" ht="12.5">
-      <c r="A178" s="7">
+      <c r="A178" s="19">
         <v>609303</v>
       </c>
-      <c r="B178" s="8">
+      <c r="B178" s="20">
         <v>1</v>
       </c>
-      <c r="C178" s="9" t="s">
+      <c r="C178" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="D178" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E178" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F178" s="10">
+      <c r="D178" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E178" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F178" s="22">
         <v>-8</v>
       </c>
-      <c r="G178" s="11">
+      <c r="G178" s="10">
         <v>40540</v>
       </c>
-      <c r="H178" s="9" t="s">
+      <c r="H178" s="21" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="12.5">
-      <c r="A179" s="7">
+      <c r="A179" s="19">
         <v>112940</v>
       </c>
-      <c r="B179" s="8">
-        <v>0</v>
-      </c>
-      <c r="C179" s="9" t="s">
+      <c r="B179" s="20">
+        <v>0</v>
+      </c>
+      <c r="C179" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="D179" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E179" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F179" s="10">
+      <c r="D179" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E179" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F179" s="22">
         <v>8</v>
       </c>
-      <c r="G179" s="11">
+      <c r="G179" s="10">
         <v>40548</v>
       </c>
-      <c r="H179" s="9" t="s">
+      <c r="H179" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="12.5">
-      <c r="A180" s="7">
+      <c r="A180" s="19">
         <v>112940</v>
       </c>
-      <c r="B180" s="8">
-        <v>0</v>
-      </c>
-      <c r="C180" s="9" t="s">
+      <c r="B180" s="20">
+        <v>0</v>
+      </c>
+      <c r="C180" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="D180" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E180" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F180" s="10">
+      <c r="D180" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E180" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F180" s="22">
         <v>3.5</v>
       </c>
-      <c r="G180" s="11">
+      <c r="G180" s="10">
         <v>40550</v>
       </c>
-      <c r="H180" s="9" t="s">
+      <c r="H180" s="21" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="12.5">
-      <c r="A181" s="7">
+      <c r="A181" s="19">
         <v>389844</v>
       </c>
-      <c r="B181" s="8">
-        <v>0</v>
-      </c>
-      <c r="C181" s="9" t="s">
+      <c r="B181" s="20">
+        <v>0</v>
+      </c>
+      <c r="C181" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="D181" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E181" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F181" s="10">
+      <c r="D181" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E181" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F181" s="22">
         <v>1.75</v>
       </c>
-      <c r="G181" s="11">
+      <c r="G181" s="10">
         <v>40555</v>
       </c>
-      <c r="H181" s="9" t="s">
+      <c r="H181" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="12.5">
-      <c r="A182" s="7">
+      <c r="A182" s="19">
         <v>389844</v>
       </c>
-      <c r="B182" s="8">
-        <v>0</v>
-      </c>
-      <c r="C182" s="9" t="s">
+      <c r="B182" s="20">
+        <v>0</v>
+      </c>
+      <c r="C182" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="D182" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E182" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F182" s="10">
+      <c r="D182" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E182" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F182" s="22">
         <v>2</v>
       </c>
-      <c r="G182" s="11">
+      <c r="G182" s="10">
         <v>40557</v>
       </c>
-      <c r="H182" s="9" t="s">
+      <c r="H182" s="21" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="183" spans="1:8" ht="12.5">
-      <c r="A183" s="7">
+      <c r="A183" s="19">
         <v>389844</v>
       </c>
-      <c r="B183" s="8">
-        <v>0</v>
-      </c>
-      <c r="C183" s="9" t="s">
+      <c r="B183" s="20">
+        <v>0</v>
+      </c>
+      <c r="C183" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="D183" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E183" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F183" s="10">
+      <c r="D183" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E183" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F183" s="22">
         <v>2</v>
       </c>
-      <c r="G183" s="11">
+      <c r="G183" s="10">
         <v>40548</v>
       </c>
-      <c r="H183" s="9" t="s">
+      <c r="H183" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="12.5">
-      <c r="A184" s="7">
+      <c r="A184" s="19">
         <v>112940</v>
       </c>
-      <c r="B184" s="8">
-        <v>0</v>
-      </c>
-      <c r="C184" s="9" t="s">
+      <c r="B184" s="20">
+        <v>0</v>
+      </c>
+      <c r="C184" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="D184" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E184" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F184" s="10">
+      <c r="D184" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E184" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F184" s="22">
         <v>8</v>
       </c>
-      <c r="G184" s="11">
+      <c r="G184" s="10">
         <v>40546</v>
       </c>
-      <c r="H184" s="9" t="s">
+      <c r="H184" s="21" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="185" spans="1:8" ht="12.5">
-      <c r="A185" s="7">
+      <c r="A185" s="19">
         <v>112940</v>
       </c>
-      <c r="B185" s="8">
-        <v>0</v>
-      </c>
-      <c r="C185" s="9" t="s">
+      <c r="B185" s="20">
+        <v>0</v>
+      </c>
+      <c r="C185" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="D185" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E185" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F185" s="10">
+      <c r="D185" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E185" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F185" s="22">
         <v>8</v>
       </c>
-      <c r="G185" s="11">
+      <c r="G185" s="10">
         <v>40547</v>
       </c>
-      <c r="H185" s="9" t="s">
+      <c r="H185" s="21" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="12.5">
-      <c r="A186" s="7">
+      <c r="A186" s="19">
         <v>402483</v>
       </c>
-      <c r="B186" s="8">
-        <v>0</v>
-      </c>
-      <c r="C186" s="9" t="s">
+      <c r="B186" s="20">
+        <v>0</v>
+      </c>
+      <c r="C186" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="D186" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E186" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F186" s="10">
+      <c r="D186" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E186" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F186" s="22">
         <v>1</v>
       </c>
-      <c r="G186" s="11">
+      <c r="G186" s="10">
         <v>40546</v>
       </c>
-      <c r="H186" s="9" t="s">
+      <c r="H186" s="21" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="12.5">
-      <c r="A187" s="7">
+      <c r="A187" s="19">
         <v>625135</v>
       </c>
-      <c r="B187" s="8">
-        <v>0</v>
-      </c>
-      <c r="C187" s="9" t="s">
+      <c r="B187" s="20">
+        <v>0</v>
+      </c>
+      <c r="C187" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="D187" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E187" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F187" s="10">
+      <c r="D187" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E187" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F187" s="22">
         <v>8</v>
       </c>
-      <c r="G187" s="11">
+      <c r="G187" s="10">
         <v>40548</v>
       </c>
-      <c r="H187" s="9" t="s">
+      <c r="H187" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="188" spans="1:8" ht="12.5">
-      <c r="A188" s="7">
+      <c r="A188" s="19">
         <v>5435</v>
       </c>
-      <c r="B188" s="8">
-        <v>0</v>
-      </c>
-      <c r="C188" s="9" t="s">
+      <c r="B188" s="20">
+        <v>0</v>
+      </c>
+      <c r="C188" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="D188" s="9" t="s">
+      <c r="D188" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E188" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F188" s="10">
+      <c r="E188" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F188" s="22">
         <v>2.5</v>
       </c>
-      <c r="G188" s="11">
+      <c r="G188" s="10">
         <v>40549</v>
       </c>
-      <c r="H188" s="9" t="s">
+      <c r="H188" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="12.5">
-      <c r="A189" s="7">
+      <c r="A189" s="19">
         <v>798649</v>
       </c>
-      <c r="B189" s="8">
-        <v>0</v>
-      </c>
-      <c r="C189" s="9" t="s">
+      <c r="B189" s="20">
+        <v>0</v>
+      </c>
+      <c r="C189" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="D189" s="9" t="s">
+      <c r="D189" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E189" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F189" s="10">
+      <c r="E189" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F189" s="22">
         <v>1.5</v>
       </c>
-      <c r="G189" s="11">
+      <c r="G189" s="10">
         <v>40549</v>
       </c>
-      <c r="H189" s="9" t="s">
+      <c r="H189" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="12.5">
-      <c r="A190" s="7">
+      <c r="A190" s="19">
         <v>113347</v>
       </c>
-      <c r="B190" s="8">
-        <v>0</v>
-      </c>
-      <c r="C190" s="9" t="s">
+      <c r="B190" s="20">
+        <v>0</v>
+      </c>
+      <c r="C190" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="D190" s="9" t="s">
+      <c r="D190" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E190" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F190" s="10">
+      <c r="E190" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F190" s="22">
         <v>1.5</v>
       </c>
-      <c r="G190" s="11">
+      <c r="G190" s="10">
         <v>40548</v>
       </c>
-      <c r="H190" s="9" t="s">
+      <c r="H190" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="191" spans="1:8" ht="12.5">
-      <c r="A191" s="7">
+      <c r="A191" s="19">
         <v>596745</v>
       </c>
-      <c r="B191" s="8">
-        <v>0</v>
-      </c>
-      <c r="C191" s="9" t="s">
+      <c r="B191" s="20">
+        <v>0</v>
+      </c>
+      <c r="C191" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="D191" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E191" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F191" s="10">
+      <c r="D191" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E191" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F191" s="22">
         <v>8</v>
       </c>
-      <c r="G191" s="11">
+      <c r="G191" s="10">
         <v>40548</v>
       </c>
-      <c r="H191" s="9" t="s">
+      <c r="H191" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="12.5">
-      <c r="A192" s="7">
+      <c r="A192" s="19">
         <v>596745</v>
       </c>
-      <c r="B192" s="8">
-        <v>0</v>
-      </c>
-      <c r="C192" s="9" t="s">
+      <c r="B192" s="20">
+        <v>0</v>
+      </c>
+      <c r="C192" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="D192" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E192" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F192" s="10">
+      <c r="D192" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E192" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F192" s="22">
         <v>0.75</v>
       </c>
-      <c r="G192" s="11">
+      <c r="G192" s="10">
         <v>40556</v>
       </c>
-      <c r="H192" s="9" t="s">
+      <c r="H192" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="12.5">
-      <c r="A193" s="7">
+      <c r="A193" s="19">
         <v>846953</v>
       </c>
-      <c r="B193" s="8">
-        <v>0</v>
-      </c>
-      <c r="C193" s="9" t="s">
+      <c r="B193" s="20">
+        <v>0</v>
+      </c>
+      <c r="C193" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="D193" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E193" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F193" s="10">
+      <c r="D193" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E193" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F193" s="22">
         <v>3</v>
       </c>
-      <c r="G193" s="11">
+      <c r="G193" s="10">
         <v>40553</v>
       </c>
-      <c r="H193" s="9" t="s">
+      <c r="H193" s="21" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="12.5">
-      <c r="A194" s="7">
+      <c r="A194" s="19">
         <v>138199</v>
       </c>
-      <c r="B194" s="8">
-        <v>0</v>
-      </c>
-      <c r="C194" s="9" t="s">
+      <c r="B194" s="20">
+        <v>0</v>
+      </c>
+      <c r="C194" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="D194" s="9" t="s">
+      <c r="D194" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E194" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F194" s="10">
+      <c r="E194" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F194" s="22">
         <v>8</v>
       </c>
-      <c r="G194" s="11">
+      <c r="G194" s="10">
         <v>40546</v>
       </c>
-      <c r="H194" s="9" t="s">
+      <c r="H194" s="21" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="195" spans="1:8" ht="12.5">
-      <c r="A195" s="7">
+      <c r="A195" s="19">
         <v>138199</v>
       </c>
-      <c r="B195" s="8">
-        <v>0</v>
-      </c>
-      <c r="C195" s="9" t="s">
+      <c r="B195" s="20">
+        <v>0</v>
+      </c>
+      <c r="C195" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="D195" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E195" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F195" s="10">
+      <c r="D195" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E195" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F195" s="22">
         <v>1</v>
       </c>
-      <c r="G195" s="11">
+      <c r="G195" s="10">
         <v>40549</v>
       </c>
-      <c r="H195" s="9" t="s">
+      <c r="H195" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="196" spans="1:8" ht="12.5">
-      <c r="A196" s="7">
+      <c r="A196" s="19">
         <v>138199</v>
       </c>
-      <c r="B196" s="8">
-        <v>0</v>
-      </c>
-      <c r="C196" s="9" t="s">
+      <c r="B196" s="20">
+        <v>0</v>
+      </c>
+      <c r="C196" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="D196" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E196" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F196" s="10">
+      <c r="D196" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E196" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F196" s="22">
         <v>0.75</v>
       </c>
-      <c r="G196" s="11">
+      <c r="G196" s="10">
         <v>40553</v>
       </c>
-      <c r="H196" s="9" t="s">
+      <c r="H196" s="21" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="197" spans="1:8" ht="12.5">
-      <c r="A197" s="7">
+      <c r="A197" s="19">
         <v>747126</v>
       </c>
-      <c r="B197" s="8">
-        <v>0</v>
-      </c>
-      <c r="C197" s="9" t="s">
+      <c r="B197" s="20">
+        <v>0</v>
+      </c>
+      <c r="C197" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="D197" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E197" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F197" s="10">
+      <c r="D197" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E197" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F197" s="22">
         <v>2</v>
       </c>
-      <c r="G197" s="11">
+      <c r="G197" s="10">
         <v>40554</v>
       </c>
-      <c r="H197" s="9" t="s">
+      <c r="H197" s="21" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="198" spans="1:8" ht="12.5">
-      <c r="A198" s="7">
+      <c r="A198" s="19">
         <v>375792</v>
       </c>
-      <c r="B198" s="8">
-        <v>0</v>
-      </c>
-      <c r="C198" s="9" t="s">
+      <c r="B198" s="20">
+        <v>0</v>
+      </c>
+      <c r="C198" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="D198" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E198" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F198" s="10">
+      <c r="D198" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E198" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F198" s="22">
         <v>2</v>
       </c>
-      <c r="G198" s="11">
+      <c r="G198" s="10">
         <v>40550</v>
       </c>
-      <c r="H198" s="9" t="s">
+      <c r="H198" s="21" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="199" spans="1:8" ht="12.5">
-      <c r="A199" s="7">
+      <c r="A199" s="19">
         <v>471981</v>
       </c>
-      <c r="B199" s="8">
-        <v>0</v>
-      </c>
-      <c r="C199" s="9" t="s">
+      <c r="B199" s="20">
+        <v>0</v>
+      </c>
+      <c r="C199" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="D199" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E199" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F199" s="10">
+      <c r="D199" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E199" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F199" s="22">
         <v>3.5</v>
       </c>
-      <c r="G199" s="11">
+      <c r="G199" s="10">
         <v>40553</v>
       </c>
-      <c r="H199" s="9" t="s">
+      <c r="H199" s="21" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="200" spans="1:8" ht="12.5">
-      <c r="A200" s="7">
+      <c r="A200" s="19">
         <v>942722</v>
       </c>
-      <c r="B200" s="8">
-        <v>0</v>
-      </c>
-      <c r="C200" s="9" t="s">
+      <c r="B200" s="20">
+        <v>0</v>
+      </c>
+      <c r="C200" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="D200" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E200" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F200" s="10">
+      <c r="D200" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E200" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F200" s="22">
         <v>8</v>
       </c>
-      <c r="G200" s="11">
+      <c r="G200" s="10">
         <v>40546</v>
       </c>
-      <c r="H200" s="9" t="s">
+      <c r="H200" s="21" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="201" spans="1:8" ht="12.5">
-      <c r="A201" s="7">
+      <c r="A201" s="19">
         <v>942722</v>
       </c>
-      <c r="B201" s="8">
-        <v>0</v>
-      </c>
-      <c r="C201" s="9" t="s">
+      <c r="B201" s="20">
+        <v>0</v>
+      </c>
+      <c r="C201" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="D201" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E201" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F201" s="10">
+      <c r="D201" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E201" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F201" s="22">
         <v>8</v>
       </c>
-      <c r="G201" s="11">
+      <c r="G201" s="10">
         <v>40547</v>
       </c>
-      <c r="H201" s="9" t="s">
+      <c r="H201" s="21" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="202" spans="1:8" ht="12.5">
-      <c r="A202" s="7">
+      <c r="A202" s="19">
         <v>942722</v>
       </c>
-      <c r="B202" s="8">
-        <v>0</v>
-      </c>
-      <c r="C202" s="9" t="s">
+      <c r="B202" s="20">
+        <v>0</v>
+      </c>
+      <c r="C202" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="D202" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E202" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F202" s="10">
+      <c r="D202" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E202" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F202" s="22">
         <v>8</v>
       </c>
-      <c r="G202" s="11">
+      <c r="G202" s="10">
         <v>40548</v>
       </c>
-      <c r="H202" s="9" t="s">
+      <c r="H202" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="203" spans="1:8" ht="12.5">
-      <c r="A203" s="7">
+      <c r="A203" s="19">
         <v>942722</v>
       </c>
-      <c r="B203" s="8">
-        <v>0</v>
-      </c>
-      <c r="C203" s="9" t="s">
+      <c r="B203" s="20">
+        <v>0</v>
+      </c>
+      <c r="C203" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="D203" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E203" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F203" s="10">
+      <c r="D203" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E203" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F203" s="22">
         <v>8</v>
       </c>
-      <c r="G203" s="11">
+      <c r="G203" s="10">
         <v>40549</v>
       </c>
-      <c r="H203" s="9" t="s">
+      <c r="H203" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="204" spans="1:8" ht="12.5">
-      <c r="A204" s="7">
+      <c r="A204" s="19">
         <v>942722</v>
       </c>
-      <c r="B204" s="8">
-        <v>0</v>
-      </c>
-      <c r="C204" s="9" t="s">
+      <c r="B204" s="20">
+        <v>0</v>
+      </c>
+      <c r="C204" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="D204" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E204" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F204" s="10">
+      <c r="D204" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E204" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F204" s="22">
         <v>8</v>
       </c>
-      <c r="G204" s="11">
+      <c r="G204" s="10">
         <v>40550</v>
       </c>
-      <c r="H204" s="9" t="s">
+      <c r="H204" s="21" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="205" spans="1:8" ht="12.5">
-      <c r="A205" s="7">
+      <c r="A205" s="19">
         <v>544430</v>
       </c>
-      <c r="B205" s="8">
-        <v>0</v>
-      </c>
-      <c r="C205" s="9" t="s">
+      <c r="B205" s="20">
+        <v>0</v>
+      </c>
+      <c r="C205" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="D205" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E205" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F205" s="10">
+      <c r="D205" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E205" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F205" s="22">
         <v>1.5</v>
       </c>
-      <c r="G205" s="11">
+      <c r="G205" s="10">
         <v>40553</v>
       </c>
-      <c r="H205" s="9" t="s">
+      <c r="H205" s="21" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="206" spans="1:8" ht="12.5">
-      <c r="A206" s="7">
+      <c r="A206" s="19">
         <v>904174</v>
       </c>
-      <c r="B206" s="8">
-        <v>0</v>
-      </c>
-      <c r="C206" s="9" t="s">
+      <c r="B206" s="20">
+        <v>0</v>
+      </c>
+      <c r="C206" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D206" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E206" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F206" s="10">
+      <c r="D206" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E206" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F206" s="22">
         <v>4</v>
       </c>
-      <c r="G206" s="11">
+      <c r="G206" s="10">
         <v>40547</v>
       </c>
-      <c r="H206" s="9" t="s">
+      <c r="H206" s="21" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="207" spans="1:8" ht="12.5">
-      <c r="A207" s="7">
+      <c r="A207" s="19">
         <v>904174</v>
       </c>
-      <c r="B207" s="8">
-        <v>0</v>
-      </c>
-      <c r="C207" s="9" t="s">
+      <c r="B207" s="20">
+        <v>0</v>
+      </c>
+      <c r="C207" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D207" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E207" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F207" s="10">
+      <c r="D207" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E207" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F207" s="22">
         <v>4</v>
       </c>
-      <c r="G207" s="11">
+      <c r="G207" s="10">
         <v>40554</v>
       </c>
-      <c r="H207" s="9" t="s">
+      <c r="H207" s="21" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="208" spans="1:8" ht="12.5">
-      <c r="A208" s="7">
+      <c r="A208" s="19">
         <v>268234</v>
       </c>
-      <c r="B208" s="8">
-        <v>0</v>
-      </c>
-      <c r="C208" s="9" t="s">
+      <c r="B208" s="20">
+        <v>0</v>
+      </c>
+      <c r="C208" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D208" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E208" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F208" s="10">
+      <c r="D208" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E208" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F208" s="22">
         <v>1.5</v>
       </c>
-      <c r="G208" s="11">
+      <c r="G208" s="10">
         <v>40549</v>
       </c>
-      <c r="H208" s="9" t="s">
+      <c r="H208" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="209" spans="1:8" ht="12.5">
-      <c r="A209" s="7">
+      <c r="A209" s="19">
         <v>66388</v>
       </c>
-      <c r="B209" s="8">
-        <v>0</v>
-      </c>
-      <c r="C209" s="9" t="s">
+      <c r="B209" s="20">
+        <v>0</v>
+      </c>
+      <c r="C209" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="D209" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E209" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F209" s="10">
+      <c r="D209" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E209" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F209" s="22">
         <v>8</v>
       </c>
-      <c r="G209" s="11">
+      <c r="G209" s="10">
         <v>40550</v>
       </c>
-      <c r="H209" s="9" t="s">
+      <c r="H209" s="21" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="210" spans="1:8" ht="12.5">
-      <c r="A210" s="7">
+      <c r="A210" s="19">
         <v>209328</v>
       </c>
-      <c r="B210" s="8">
-        <v>0</v>
-      </c>
-      <c r="C210" s="9" t="s">
+      <c r="B210" s="20">
+        <v>0</v>
+      </c>
+      <c r="C210" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="D210" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E210" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F210" s="10">
+      <c r="D210" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E210" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F210" s="22">
         <v>1.75</v>
       </c>
-      <c r="G210" s="11">
+      <c r="G210" s="10">
         <v>40546</v>
       </c>
-      <c r="H210" s="9" t="s">
+      <c r="H210" s="21" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="211" spans="1:8" ht="12.5">
-      <c r="A211" s="7">
+      <c r="A211" s="19">
         <v>27178</v>
       </c>
-      <c r="B211" s="8">
-        <v>0</v>
-      </c>
-      <c r="C211" s="9" t="s">
+      <c r="B211" s="20">
+        <v>0</v>
+      </c>
+      <c r="C211" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="D211" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E211" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F211" s="10">
+      <c r="D211" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E211" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F211" s="22">
         <v>8</v>
       </c>
-      <c r="G211" s="11">
+      <c r="G211" s="10">
         <v>40554</v>
       </c>
-      <c r="H211" s="9" t="s">
+      <c r="H211" s="21" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="212" spans="1:8" ht="12.5">
-      <c r="A212" s="7">
+      <c r="A212" s="19">
         <v>129044</v>
       </c>
-      <c r="B212" s="8">
-        <v>0</v>
-      </c>
-      <c r="C212" s="9" t="s">
+      <c r="B212" s="20">
+        <v>0</v>
+      </c>
+      <c r="C212" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="D212" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E212" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F212" s="10">
+      <c r="D212" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E212" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F212" s="22">
         <v>1</v>
       </c>
-      <c r="G212" s="11">
+      <c r="G212" s="10">
         <v>40554</v>
       </c>
-      <c r="H212" s="9" t="s">
+      <c r="H212" s="21" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="213" spans="1:8" ht="12.5">
-      <c r="A213" s="7">
+      <c r="A213" s="19">
         <v>560101</v>
       </c>
-      <c r="B213" s="8">
-        <v>0</v>
-      </c>
-      <c r="C213" s="9" t="s">
+      <c r="B213" s="20">
+        <v>0</v>
+      </c>
+      <c r="C213" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="D213" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E213" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F213" s="10">
+      <c r="D213" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E213" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F213" s="22">
         <v>1.5</v>
       </c>
-      <c r="G213" s="11">
+      <c r="G213" s="10">
         <v>40549</v>
       </c>
-      <c r="H213" s="9" t="s">
+      <c r="H213" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="214" spans="1:8" ht="12.5">
-      <c r="A214" s="7">
+      <c r="A214" s="19">
         <v>162126</v>
       </c>
-      <c r="B214" s="8">
-        <v>0</v>
-      </c>
-      <c r="C214" s="9" t="s">
+      <c r="B214" s="20">
+        <v>0</v>
+      </c>
+      <c r="C214" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="D214" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E214" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F214" s="10">
+      <c r="D214" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E214" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F214" s="22">
         <v>3</v>
       </c>
-      <c r="G214" s="11">
+      <c r="G214" s="10">
         <v>40549</v>
       </c>
-      <c r="H214" s="9" t="s">
+      <c r="H214" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="215" spans="1:8" ht="12.5">
-      <c r="A215" s="7">
+      <c r="A215" s="19">
         <v>694606</v>
       </c>
-      <c r="B215" s="8">
-        <v>0</v>
-      </c>
-      <c r="C215" s="9" t="s">
+      <c r="B215" s="20">
+        <v>0</v>
+      </c>
+      <c r="C215" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="D215" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E215" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F215" s="10">
+      <c r="D215" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E215" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F215" s="22">
         <v>2</v>
       </c>
-      <c r="G215" s="11">
+      <c r="G215" s="10">
         <v>40547</v>
       </c>
-      <c r="H215" s="9" t="s">
+      <c r="H215" s="21" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="216" spans="1:8" ht="12.5">
-      <c r="A216" s="7">
+      <c r="A216" s="19">
         <v>968003</v>
       </c>
-      <c r="B216" s="8">
-        <v>0</v>
-      </c>
-      <c r="C216" s="9" t="s">
+      <c r="B216" s="20">
+        <v>0</v>
+      </c>
+      <c r="C216" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="D216" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E216" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F216" s="10">
+      <c r="D216" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E216" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F216" s="22">
         <v>3</v>
       </c>
-      <c r="G216" s="11">
+      <c r="G216" s="10">
         <v>40555</v>
       </c>
-      <c r="H216" s="9" t="s">
+      <c r="H216" s="21" t="s">
         <v>15</v>
       </c>
     </row>
@@ -7977,7 +8139,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:Q1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7987,8 +8149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{869E54C9-CAB0-43E3-A27D-8788768DC5C3}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -7998,178 +8160,178 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="5" t="s">
         <v>141</v>
       </c>
       <c r="B1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="16">
+    <row r="2" spans="1:2" ht="13">
+      <c r="A2" s="6">
         <v>40527</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="14">
         <v>81.25</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="16">
+    <row r="3" spans="1:2" ht="13">
+      <c r="A3" s="6">
         <v>40528</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="14">
         <v>101.25</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="16">
+    <row r="4" spans="1:2" ht="13">
+      <c r="A4" s="6">
         <v>40529</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="14">
         <v>86.5</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="16">
+    <row r="5" spans="1:2" ht="13">
+      <c r="A5" s="6">
         <v>40532</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="14">
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="16">
+    <row r="6" spans="1:2" ht="13">
+      <c r="A6" s="6">
         <v>40533</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="14">
         <v>88.25</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="16">
+    <row r="7" spans="1:2" ht="13">
+      <c r="A7" s="6">
         <v>40534</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="14">
         <v>65.5</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="16">
+    <row r="8" spans="1:2" ht="13">
+      <c r="A8" s="6">
         <v>40535</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="14">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="16">
+    <row r="9" spans="1:2" ht="13">
+      <c r="A9" s="6">
         <v>40540</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="14">
         <v>91.5</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="16">
+    <row r="10" spans="1:2" ht="13">
+      <c r="A10" s="6">
         <v>40541</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="14">
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="16">
+    <row r="11" spans="1:2" ht="13">
+      <c r="A11" s="6">
         <v>40542</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="14">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="16">
+    <row r="12" spans="1:2" ht="13">
+      <c r="A12" s="6">
         <v>40546</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="14">
         <v>36.75</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="16">
+    <row r="13" spans="1:2" ht="13">
+      <c r="A13" s="6">
         <v>40547</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="14">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="16">
+    <row r="14" spans="1:2" ht="13">
+      <c r="A14" s="6">
         <v>40548</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="14">
         <v>38.5</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="16">
+    <row r="15" spans="1:2" ht="13">
+      <c r="A15" s="6">
         <v>40549</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="14">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="16">
+    <row r="16" spans="1:2" ht="13">
+      <c r="A16" s="6">
         <v>40550</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="14">
         <v>29.5</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="16">
+    <row r="17" spans="1:2" ht="13">
+      <c r="A17" s="6">
         <v>40553</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="14">
         <v>8.75</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="16">
+    <row r="18" spans="1:2" ht="13">
+      <c r="A18" s="6">
         <v>40554</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B18" s="14">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="16">
+    <row r="19" spans="1:2" ht="13">
+      <c r="A19" s="6">
         <v>40555</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B19" s="14">
         <v>4.75</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="16">
+    <row r="20" spans="1:2" ht="13">
+      <c r="A20" s="6">
         <v>40556</v>
       </c>
-      <c r="B20" s="18">
+      <c r="B20" s="14">
         <v>0.75</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="16">
+    <row r="21" spans="1:2" ht="13">
+      <c r="A21" s="6">
         <v>40557</v>
       </c>
-      <c r="B21" s="18">
+      <c r="B21" s="14">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="B22" s="18">
+      <c r="B22" s="16">
         <v>917.25</v>
       </c>
     </row>
